--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565233.6185026749</v>
+        <v>556327.2631534344</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4144102.13739926</v>
+        <v>4144102.137399257</v>
       </c>
     </row>
     <row r="8">
@@ -1367,23 +1367,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>19.69312787423158</v>
       </c>
       <c r="D11" t="n">
+        <v>19.69312787423158</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>17.34570703162317</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,76 +1446,76 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>19.69312787423158</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>19.69312787423158</v>
+      </c>
+      <c r="W12" t="n">
+        <v>19.69312787423158</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>17.34570703162317</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19.69312787423158</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>19.69312787423158</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>19.69312787423158</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.34570703162317</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>19.69312787423158</v>
       </c>
       <c r="G13" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.34570703162317</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,67 +1610,67 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>19.69312787423158</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>19.69312787423158</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="U14" t="n">
+        <v>17.34570703162317</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>19.69312787423158</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>17.34570703162317</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17.34570703162317</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>19.69312787423158</v>
@@ -1746,13 +1746,13 @@
         <v>19.69312787423158</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>17.34570703162317</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.69312787423158</v>
+        <v>17.34570703162317</v>
       </c>
       <c r="R16" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>17.34570703162317</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,76 +1841,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>130.9127053730425</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>130.9127053730425</v>
       </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
+        <v>130.9127053730425</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>115.3079108925758</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45.90526602859531</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>69.40264486398047</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>115.3079108925758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,55 +1999,55 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>45.39468379604111</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.9127053730425</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>115.3079108925758</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>130.9127053730425</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>69.9132270965347</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>264.4110599759285</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>328.3593914192326</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>168.6326701510822</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>218.3447000146056</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2588243609577</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>313.9210722864472</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7628000598813</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>106.6269395806581</v>
+        <v>99.59949792134157</v>
       </c>
       <c r="I21" t="n">
-        <v>69.40264486398047</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>64.10243364944259</v>
       </c>
       <c r="S21" t="n">
         <v>160.8966056099798</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9031770083874</v>
       </c>
       <c r="V21" t="n">
-        <v>204.7230496229224</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>30.19872829883827</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>221.5230286751125</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.9634570690127</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>28.31568616645646</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.2173806791498</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>328.3593914192326</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>168.6326701510822</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.2875006862301</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.3447000146056</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2400,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>135.1174126907843</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7628000598813</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>106.6269395806581</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>69.40264486398047</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.10243364944259</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>160.8966056099798</v>
@@ -2451,7 +2451,7 @@
         <v>197.8240312476302</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9031770083874</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>190.8543234211865</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.8653962957056</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.1806307159979</v>
       </c>
       <c r="V25" t="n">
-        <v>221.5230286751124</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.6838602046171</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.3593914192326</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>168.6326701510822</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.69107159268735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.3447000146056</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2588243609577</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>239.4675540615858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2652,7 +2652,7 @@
         <v>106.6269395806581</v>
       </c>
       <c r="I27" t="n">
-        <v>69.40264486398047</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>64.10243364944259</v>
       </c>
       <c r="S27" t="n">
-        <v>160.8966056099798</v>
+        <v>86.6079504691688</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U27" t="n">
-        <v>140.6206159734798</v>
+        <v>225.9031770083874</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,22 +2755,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>45.39468379604111</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>155.4026781139341</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>215.5320656217636</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>91.71659947996473</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2924736994793</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>221.7535533122242</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>98.29073470409996</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.2173806791498</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>63.4935489730653</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>168.6326701510822</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2875006862301</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.4490747249569</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7628000598813</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>106.6269395806581</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>69.40264486398047</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>21.88424433197928</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U30" t="n">
         <v>225.9031770083874</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>38.70526060462111</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.5041256465793</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>155.4026781139341</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2924736994793</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>221.7535533122241</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,13 +3029,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>23.62515633998502</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>184.2875006862301</v>
+        <v>58.41876435634956</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2588243609577</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>106.6269395806581</v>
+        <v>8.432704286638069</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>113.0813359989513</v>
+        <v>160.8966056099798</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U33" t="n">
         <v>225.9031770083874</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>221.5230286751125</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>221.5230286751124</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>168.4724247433737</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>210.2559711186674</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.2173806791498</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,13 +3354,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>90.5283660710452</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>106.6269395806581</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>160.8966056099798</v>
       </c>
       <c r="T36" t="n">
-        <v>197.8240312476302</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9031770083874</v>
+        <v>101.6628167430411</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.39468379604111</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>155.4026781139341</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>55.11102177790021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>221.5230286751125</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>347.266240550582</v>
       </c>
       <c r="F38" t="n">
-        <v>305.4374216418535</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>168.6326701510822</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.69107159268735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>184.2875006862301</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.3447000146056</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2588243609577</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.7628000598813</v>
       </c>
       <c r="H39" t="n">
-        <v>23.17440726702378</v>
+        <v>29.896412123707</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>69.40264486398047</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>160.8966056099798</v>
       </c>
       <c r="T39" t="n">
-        <v>197.8240312476302</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9031770083874</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.80430600090281</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>215.5320656217636</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2924736994793</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>221.7535533122242</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>37.25087355732853</v>
       </c>
       <c r="H41" t="n">
-        <v>213.0576535227104</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.69107159268735</v>
       </c>
       <c r="S41" t="n">
-        <v>184.2875006862301</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3447000146056</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2588243609577</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3819,16 +3819,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>41.33070399010908</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.7628000598813</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>64.10243364944259</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>160.8966056099798</v>
+        <v>159.5034876429476</v>
       </c>
       <c r="T42" t="n">
         <v>197.8240312476302</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9031770083874</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>37.22225292764551</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5041256465793</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.8986004145475</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.8653962957056</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.1806307159979</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>58.88046313911664</v>
+      </c>
+      <c r="C11" t="n">
         <v>38.98841478130696</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>19.09636642349728</v>
       </c>
-      <c r="D11" t="n">
-        <v>1.575450229938526</v>
-      </c>
       <c r="E11" t="n">
-        <v>1.575450229938526</v>
+        <v>19.09636642349728</v>
       </c>
       <c r="F11" t="n">
-        <v>1.575450229938526</v>
+        <v>19.09636642349728</v>
       </c>
       <c r="G11" t="n">
         <v>1.575450229938526</v>
@@ -5042,10 +5042,10 @@
         <v>21.07164682542779</v>
       </c>
       <c r="K11" t="n">
-        <v>40.56784342091705</v>
+        <v>21.07164682542779</v>
       </c>
       <c r="L11" t="n">
-        <v>59.27631490143705</v>
+        <v>39.78011830594778</v>
       </c>
       <c r="M11" t="n">
         <v>59.27631490143705</v>
@@ -5054,34 +5054,34 @@
         <v>59.27631490143705</v>
       </c>
       <c r="O11" t="n">
-        <v>59.27631490143705</v>
+        <v>78.77251149692631</v>
       </c>
       <c r="P11" t="n">
-        <v>59.27631490143705</v>
+        <v>78.77251149692631</v>
       </c>
       <c r="Q11" t="n">
         <v>78.77251149692631</v>
       </c>
       <c r="R11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="S11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="T11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="U11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="V11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="W11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="X11" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="Y11" t="n">
         <v>58.88046313911664</v>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.4674985877482</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="C12" t="n">
         <v>1.575450229938526</v>
@@ -5118,25 +5118,25 @@
         <v>1.575450229938526</v>
       </c>
       <c r="J12" t="n">
-        <v>21.07164682542779</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="K12" t="n">
-        <v>40.56784342091705</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="L12" t="n">
-        <v>54.31994362133639</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="M12" t="n">
+        <v>20.28392171045852</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39.78011830594778</v>
+      </c>
+      <c r="O12" t="n">
+        <v>39.78011830594778</v>
+      </c>
+      <c r="P12" t="n">
         <v>59.27631490143705</v>
-      </c>
-      <c r="N12" t="n">
-        <v>78.77251149692631</v>
-      </c>
-      <c r="O12" t="n">
-        <v>78.77251149692631</v>
-      </c>
-      <c r="P12" t="n">
-        <v>78.77251149692631</v>
       </c>
       <c r="Q12" t="n">
         <v>78.77251149692631</v>
@@ -5154,16 +5154,16 @@
         <v>78.77251149692631</v>
       </c>
       <c r="V12" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="W12" t="n">
-        <v>78.77251149692631</v>
+        <v>38.98841478130696</v>
       </c>
       <c r="X12" t="n">
-        <v>58.88046313911664</v>
+        <v>38.98841478130696</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.98841478130696</v>
+        <v>21.4674985877482</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="C13" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="D13" t="n">
-        <v>61.25159530336756</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="E13" t="n">
-        <v>61.25159530336756</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="F13" t="n">
-        <v>41.35954694555788</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="G13" t="n">
         <v>21.4674985877482</v>
@@ -5200,49 +5200,49 @@
         <v>1.575450229938526</v>
       </c>
       <c r="K13" t="n">
-        <v>21.07164682542779</v>
+        <v>20.28392171045852</v>
       </c>
       <c r="L13" t="n">
-        <v>21.07164682542779</v>
+        <v>39.78011830594778</v>
       </c>
       <c r="M13" t="n">
-        <v>21.07164682542779</v>
+        <v>59.27631490143705</v>
       </c>
       <c r="N13" t="n">
-        <v>40.56784342091705</v>
+        <v>78.77251149692631</v>
       </c>
       <c r="O13" t="n">
-        <v>59.27631490143705</v>
+        <v>78.77251149692631</v>
       </c>
       <c r="P13" t="n">
         <v>78.77251149692631</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="R13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="S13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="T13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="U13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="V13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="W13" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="X13" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="Y13" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.25159530336756</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="C14" t="n">
-        <v>61.25159530336756</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="D14" t="n">
-        <v>41.35954694555788</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="E14" t="n">
-        <v>41.35954694555788</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="F14" t="n">
-        <v>41.35954694555788</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="G14" t="n">
-        <v>21.4674985877482</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="H14" t="n">
-        <v>21.4674985877482</v>
+        <v>1.575450229938526</v>
       </c>
       <c r="I14" t="n">
         <v>1.575450229938526</v>
       </c>
       <c r="J14" t="n">
-        <v>1.575450229938526</v>
+        <v>21.07164682542779</v>
       </c>
       <c r="K14" t="n">
-        <v>1.575450229938526</v>
+        <v>21.07164682542779</v>
       </c>
       <c r="L14" t="n">
-        <v>1.575450229938526</v>
+        <v>39.78011830594778</v>
       </c>
       <c r="M14" t="n">
-        <v>1.575450229938526</v>
+        <v>59.27631490143705</v>
       </c>
       <c r="N14" t="n">
-        <v>20.28392171045852</v>
+        <v>59.27631490143705</v>
       </c>
       <c r="O14" t="n">
-        <v>39.78011830594778</v>
+        <v>59.27631490143705</v>
       </c>
       <c r="P14" t="n">
         <v>59.27631490143705</v>
@@ -5306,22 +5306,22 @@
         <v>78.77251149692631</v>
       </c>
       <c r="T14" t="n">
-        <v>78.77251149692631</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="U14" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="V14" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="W14" t="n">
-        <v>78.77251149692631</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="X14" t="n">
-        <v>61.25159530336756</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="Y14" t="n">
-        <v>61.25159530336756</v>
+        <v>21.4674985877482</v>
       </c>
     </row>
     <row r="15">
@@ -5355,7 +5355,7 @@
         <v>1.575450229938526</v>
       </c>
       <c r="J15" t="n">
-        <v>20.28392171045852</v>
+        <v>21.07164682542779</v>
       </c>
       <c r="K15" t="n">
         <v>39.78011830594778</v>
@@ -5382,22 +5382,22 @@
         <v>78.77251149692631</v>
       </c>
       <c r="S15" t="n">
-        <v>61.25159530336756</v>
+        <v>78.77251149692631</v>
       </c>
       <c r="T15" t="n">
-        <v>41.35954694555788</v>
+        <v>78.77251149692631</v>
       </c>
       <c r="U15" t="n">
-        <v>21.4674985877482</v>
+        <v>58.88046313911664</v>
       </c>
       <c r="V15" t="n">
-        <v>1.575450229938526</v>
+        <v>38.98841478130696</v>
       </c>
       <c r="W15" t="n">
-        <v>1.575450229938526</v>
+        <v>19.09636642349728</v>
       </c>
       <c r="X15" t="n">
-        <v>1.575450229938526</v>
+        <v>19.09636642349728</v>
       </c>
       <c r="Y15" t="n">
         <v>1.575450229938526</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="C16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="D16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="E16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="F16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="G16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="H16" t="n">
-        <v>1.575450229938526</v>
+        <v>41.35954694555788</v>
       </c>
       <c r="I16" t="n">
-        <v>1.575450229938526</v>
+        <v>21.4674985877482</v>
       </c>
       <c r="J16" t="n">
         <v>1.575450229938526</v>
       </c>
       <c r="K16" t="n">
-        <v>1.575450229938526</v>
+        <v>21.07164682542779</v>
       </c>
       <c r="L16" t="n">
-        <v>1.575450229938526</v>
+        <v>39.78011830594778</v>
       </c>
       <c r="M16" t="n">
-        <v>21.07164682542779</v>
+        <v>39.78011830594778</v>
       </c>
       <c r="N16" t="n">
-        <v>40.56784342091705</v>
+        <v>59.27631490143705</v>
       </c>
       <c r="O16" t="n">
         <v>59.27631490143705</v>
@@ -5455,31 +5455,31 @@
         <v>78.77251149692631</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.88046313911664</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="R16" t="n">
-        <v>38.98841478130696</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="S16" t="n">
-        <v>19.09636642349728</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="T16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="U16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="V16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="W16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="X16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.575450229938526</v>
+        <v>61.25159530336756</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.1807096274376</v>
+        <v>407.178184226942</v>
       </c>
       <c r="C17" t="n">
-        <v>126.9456536950715</v>
+        <v>407.178184226942</v>
       </c>
       <c r="D17" t="n">
-        <v>10.4730164298434</v>
+        <v>274.9431282945758</v>
       </c>
       <c r="E17" t="n">
-        <v>10.4730164298434</v>
+        <v>274.9431282945758</v>
       </c>
       <c r="F17" t="n">
-        <v>10.4730164298434</v>
+        <v>142.7080723622096</v>
       </c>
       <c r="G17" t="n">
         <v>10.4730164298434</v>
@@ -5513,25 +5513,25 @@
         <v>10.4730164298434</v>
       </c>
       <c r="J17" t="n">
-        <v>10.4730164298434</v>
+        <v>89.84034167940325</v>
       </c>
       <c r="K17" t="n">
-        <v>28.6966140148445</v>
+        <v>219.4439199987153</v>
       </c>
       <c r="L17" t="n">
-        <v>158.3001923341566</v>
+        <v>349.0474983180274</v>
       </c>
       <c r="M17" t="n">
-        <v>158.3001923341566</v>
+        <v>478.6510766373395</v>
       </c>
       <c r="N17" t="n">
-        <v>287.9037706534687</v>
+        <v>478.6510766373395</v>
       </c>
       <c r="O17" t="n">
-        <v>417.5073489727807</v>
+        <v>478.6510766373395</v>
       </c>
       <c r="P17" t="n">
-        <v>417.5073489727807</v>
+        <v>478.6510766373395</v>
       </c>
       <c r="Q17" t="n">
         <v>523.6508214921701</v>
@@ -5555,10 +5555,10 @@
         <v>523.6508214921701</v>
       </c>
       <c r="X17" t="n">
-        <v>523.6508214921701</v>
+        <v>407.178184226942</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.4157655598038</v>
+        <v>407.178184226942</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.4730164298434</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="C18" t="n">
-        <v>10.4730164298434</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="D18" t="n">
-        <v>10.4730164298434</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="E18" t="n">
-        <v>10.4730164298434</v>
+        <v>391.4157655598038</v>
       </c>
       <c r="F18" t="n">
-        <v>10.4730164298434</v>
+        <v>259.1807096274376</v>
       </c>
       <c r="G18" t="n">
-        <v>10.4730164298434</v>
+        <v>126.9456536950715</v>
       </c>
       <c r="H18" t="n">
-        <v>10.4730164298434</v>
+        <v>80.57669811063175</v>
       </c>
       <c r="I18" t="n">
         <v>10.4730164298434</v>
@@ -5595,13 +5595,13 @@
         <v>10.4730164298434</v>
       </c>
       <c r="K18" t="n">
-        <v>10.4730164298434</v>
+        <v>134.8400865342338</v>
       </c>
       <c r="L18" t="n">
-        <v>140.0765947491555</v>
+        <v>134.8400865342338</v>
       </c>
       <c r="M18" t="n">
-        <v>269.6801730684675</v>
+        <v>264.4436648535459</v>
       </c>
       <c r="N18" t="n">
         <v>394.047243172858</v>
@@ -5625,19 +5625,19 @@
         <v>523.6508214921701</v>
       </c>
       <c r="U18" t="n">
-        <v>391.4157655598038</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="V18" t="n">
-        <v>259.1807096274376</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="W18" t="n">
-        <v>126.9456536950715</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="X18" t="n">
-        <v>126.9456536950715</v>
+        <v>523.6508214921701</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.4730164298434</v>
+        <v>523.6508214921701</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5692,31 @@
         <v>523.6508214921701</v>
       </c>
       <c r="Q19" t="n">
-        <v>523.6508214921701</v>
+        <v>477.797605536573</v>
       </c>
       <c r="R19" t="n">
-        <v>407.178184226942</v>
+        <v>345.5625496042068</v>
       </c>
       <c r="S19" t="n">
-        <v>407.178184226942</v>
+        <v>345.5625496042068</v>
       </c>
       <c r="T19" t="n">
-        <v>407.178184226942</v>
+        <v>345.5625496042068</v>
       </c>
       <c r="U19" t="n">
-        <v>274.9431282945758</v>
+        <v>213.3274936718406</v>
       </c>
       <c r="V19" t="n">
-        <v>274.9431282945758</v>
+        <v>142.7080723622096</v>
       </c>
       <c r="W19" t="n">
-        <v>274.9431282945758</v>
+        <v>10.4730164298434</v>
       </c>
       <c r="X19" t="n">
-        <v>274.9431282945758</v>
+        <v>10.4730164298434</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.7080723622096</v>
+        <v>10.4730164298434</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1038.238433723852</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="C20" t="n">
-        <v>669.2759167834404</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="D20" t="n">
-        <v>311.0102181766899</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="E20" t="n">
-        <v>311.0102181766899</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="F20" t="n">
-        <v>43.92833941312575</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="G20" t="n">
-        <v>43.92833941312575</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="H20" t="n">
-        <v>43.92833941312575</v>
+        <v>214.2643698687643</v>
       </c>
       <c r="I20" t="n">
         <v>43.92833941312575</v>
       </c>
       <c r="J20" t="n">
-        <v>123.2956646626857</v>
+        <v>123.2956646626854</v>
       </c>
       <c r="K20" t="n">
-        <v>362.99151560282</v>
+        <v>362.9915156028197</v>
       </c>
       <c r="L20" t="n">
-        <v>712.632041593283</v>
+        <v>712.6320415932828</v>
       </c>
       <c r="M20" t="n">
         <v>1118.281040747626</v>
@@ -5783,19 +5783,19 @@
         <v>1975.866768621332</v>
       </c>
       <c r="U20" t="n">
-        <v>1722.069976337537</v>
+        <v>1975.866768621332</v>
       </c>
       <c r="V20" t="n">
-        <v>1391.007088993966</v>
+        <v>1975.866768621332</v>
       </c>
       <c r="W20" t="n">
-        <v>1038.238433723852</v>
+        <v>1623.098113351218</v>
       </c>
       <c r="X20" t="n">
-        <v>1038.238433723852</v>
+        <v>1249.632355090138</v>
       </c>
       <c r="Y20" t="n">
-        <v>1038.238433723852</v>
+        <v>932.5403628816059</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.0396948739937</v>
+        <v>467.9213318114046</v>
       </c>
       <c r="C21" t="n">
-        <v>814.5866655928667</v>
+        <v>293.4683025302776</v>
       </c>
       <c r="D21" t="n">
-        <v>665.6522559316154</v>
+        <v>144.5338928690263</v>
       </c>
       <c r="E21" t="n">
-        <v>506.41480092616</v>
+        <v>144.5338928690263</v>
       </c>
       <c r="F21" t="n">
-        <v>359.8802429530449</v>
+        <v>144.5338928690263</v>
       </c>
       <c r="G21" t="n">
-        <v>221.7360004683163</v>
+        <v>144.5338928690263</v>
       </c>
       <c r="H21" t="n">
-        <v>114.0320210939141</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="I21" t="n">
         <v>43.92833941312575</v>
       </c>
       <c r="J21" t="n">
-        <v>60.82927510565099</v>
+        <v>97.50559492815029</v>
       </c>
       <c r="K21" t="n">
-        <v>60.82927510565099</v>
+        <v>315.6985013778407</v>
       </c>
       <c r="L21" t="n">
-        <v>415.6209607911683</v>
+        <v>670.490187063358</v>
       </c>
       <c r="M21" t="n">
-        <v>881.6253451837689</v>
+        <v>1136.494571455959</v>
       </c>
       <c r="N21" t="n">
-        <v>1375.670492379376</v>
+        <v>1630.539718651566</v>
       </c>
       <c r="O21" t="n">
-        <v>1761.209604258347</v>
+        <v>2016.078830530537</v>
       </c>
       <c r="P21" t="n">
         <v>2053.63566359233</v>
@@ -5853,28 +5853,28 @@
         <v>2196.416970656288</v>
       </c>
       <c r="R21" t="n">
-        <v>2196.416970656288</v>
+        <v>2131.667037677053</v>
       </c>
       <c r="S21" t="n">
-        <v>2033.895146807823</v>
+        <v>1969.145213828588</v>
       </c>
       <c r="T21" t="n">
-        <v>2033.895146807823</v>
+        <v>1769.322960043103</v>
       </c>
       <c r="U21" t="n">
-        <v>2033.895146807823</v>
+        <v>1541.137932761904</v>
       </c>
       <c r="V21" t="n">
-        <v>1827.10418759275</v>
+        <v>1305.985824530161</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.866830864548</v>
+        <v>1051.748467801959</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.015330659015</v>
+        <v>843.8969675964265</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.255031894062</v>
+        <v>636.1366688314727</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>43.92833941312575</v>
       </c>
       <c r="K22" t="n">
-        <v>77.87945644587911</v>
+        <v>77.87945644587913</v>
       </c>
       <c r="L22" t="n">
         <v>176.8516318902848</v>
@@ -5920,34 +5920,34 @@
         <v>291.5930370679473</v>
       </c>
       <c r="N22" t="n">
-        <v>409.0407645119887</v>
+        <v>409.0407645119888</v>
       </c>
       <c r="O22" t="n">
-        <v>501.5064547576069</v>
+        <v>501.506454757607</v>
       </c>
       <c r="P22" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="Q22" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="R22" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="S22" t="n">
-        <v>526.6023785170299</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="T22" t="n">
-        <v>526.6023785170299</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="U22" t="n">
-        <v>526.6023785170299</v>
+        <v>333.3455094500864</v>
       </c>
       <c r="V22" t="n">
-        <v>271.9178903111431</v>
+        <v>333.3455094500864</v>
       </c>
       <c r="W22" t="n">
-        <v>271.9178903111431</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="X22" t="n">
         <v>43.92833941312575</v>
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1567.93071234814</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="C23" t="n">
-        <v>1198.968195407728</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="D23" t="n">
-        <v>840.7024968009775</v>
+        <v>1761.11607483074</v>
       </c>
       <c r="E23" t="n">
-        <v>454.9142442027333</v>
+        <v>1375.327822232495</v>
       </c>
       <c r="F23" t="n">
-        <v>43.92833941312575</v>
+        <v>964.341917442888</v>
       </c>
       <c r="G23" t="n">
-        <v>43.92833941312575</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="H23" t="n">
-        <v>43.92833941312575</v>
+        <v>214.2643698687643</v>
       </c>
       <c r="I23" t="n">
         <v>43.92833941312575</v>
       </c>
       <c r="J23" t="n">
-        <v>123.2956646626857</v>
+        <v>123.2956646626854</v>
       </c>
       <c r="K23" t="n">
-        <v>362.99151560282</v>
+        <v>362.9915156028197</v>
       </c>
       <c r="L23" t="n">
-        <v>712.632041593283</v>
+        <v>712.6320415932828</v>
       </c>
       <c r="M23" t="n">
         <v>1118.281040747626</v>
@@ -6014,25 +6014,25 @@
         <v>2196.416970656288</v>
       </c>
       <c r="S23" t="n">
-        <v>2196.416970656288</v>
+        <v>2010.267980064136</v>
       </c>
       <c r="T23" t="n">
-        <v>2196.416970656288</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="U23" t="n">
-        <v>2196.416970656288</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="V23" t="n">
-        <v>2196.416970656288</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="W23" t="n">
-        <v>2196.416970656288</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="X23" t="n">
-        <v>2196.416970656288</v>
+        <v>1789.717778029181</v>
       </c>
       <c r="Y23" t="n">
-        <v>1806.277638680476</v>
+        <v>1789.717778029181</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>918.9360131932054</v>
+        <v>532.6712647906395</v>
       </c>
       <c r="C24" t="n">
-        <v>744.4829839120785</v>
+        <v>358.2182355095125</v>
       </c>
       <c r="D24" t="n">
-        <v>595.5485742508272</v>
+        <v>358.2182355095125</v>
       </c>
       <c r="E24" t="n">
-        <v>436.3111192453716</v>
+        <v>358.2182355095125</v>
       </c>
       <c r="F24" t="n">
-        <v>289.7765612722566</v>
+        <v>221.7360004683163</v>
       </c>
       <c r="G24" t="n">
-        <v>151.6323187875279</v>
+        <v>221.7360004683163</v>
       </c>
       <c r="H24" t="n">
-        <v>43.92833941312575</v>
+        <v>114.0320210939141</v>
       </c>
       <c r="I24" t="n">
         <v>43.92833941312575</v>
       </c>
       <c r="J24" t="n">
-        <v>97.50559492815027</v>
+        <v>60.82927510565059</v>
       </c>
       <c r="K24" t="n">
-        <v>315.6985013778407</v>
+        <v>60.82927510565059</v>
       </c>
       <c r="L24" t="n">
-        <v>670.490187063358</v>
+        <v>415.620960791168</v>
       </c>
       <c r="M24" t="n">
-        <v>1136.494571455959</v>
+        <v>881.6253451837686</v>
       </c>
       <c r="N24" t="n">
-        <v>1630.539718651566</v>
+        <v>1375.670492379376</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.078830530537</v>
+        <v>1761.209604258347</v>
       </c>
       <c r="P24" t="n">
         <v>2053.63566359233</v>
@@ -6090,28 +6090,28 @@
         <v>2196.416970656288</v>
       </c>
       <c r="R24" t="n">
-        <v>2131.667037677053</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="S24" t="n">
-        <v>1969.145213828588</v>
+        <v>2033.895146807823</v>
       </c>
       <c r="T24" t="n">
-        <v>1769.322960043103</v>
+        <v>1834.072893022338</v>
       </c>
       <c r="U24" t="n">
-        <v>1769.322960043103</v>
+        <v>1605.887865741139</v>
       </c>
       <c r="V24" t="n">
-        <v>1534.17085181136</v>
+        <v>1370.735757509396</v>
       </c>
       <c r="W24" t="n">
-        <v>1279.933495083159</v>
+        <v>1116.498400781194</v>
       </c>
       <c r="X24" t="n">
-        <v>1087.151350213273</v>
+        <v>908.6469005756614</v>
       </c>
       <c r="Y24" t="n">
-        <v>1087.151350213273</v>
+        <v>700.8866018107076</v>
       </c>
     </row>
     <row r="25">
@@ -6148,7 +6148,7 @@
         <v>43.92833941312575</v>
       </c>
       <c r="K25" t="n">
-        <v>77.87945644587911</v>
+        <v>77.87945644587913</v>
       </c>
       <c r="L25" t="n">
         <v>176.8516318902848</v>
@@ -6157,31 +6157,31 @@
         <v>291.5930370679473</v>
       </c>
       <c r="N25" t="n">
-        <v>409.0407645119887</v>
+        <v>409.0407645119888</v>
       </c>
       <c r="O25" t="n">
-        <v>501.5064547576069</v>
+        <v>501.506454757607</v>
       </c>
       <c r="P25" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="Q25" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="R25" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="S25" t="n">
-        <v>557.1061444754524</v>
+        <v>557.1061444754525</v>
       </c>
       <c r="T25" t="n">
-        <v>557.1061444754524</v>
+        <v>328.9592795302954</v>
       </c>
       <c r="U25" t="n">
-        <v>557.1061444754524</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="V25" t="n">
-        <v>333.3455094500864</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="W25" t="n">
         <v>43.92833941312575</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1567.93071234814</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="C26" t="n">
-        <v>1198.968195407728</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="D26" t="n">
-        <v>840.7024968009775</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="E26" t="n">
-        <v>454.9142442027333</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="F26" t="n">
-        <v>43.92833941312575</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="G26" t="n">
-        <v>43.92833941312575</v>
+        <v>545.9405228174841</v>
       </c>
       <c r="H26" t="n">
-        <v>43.92833941312575</v>
+        <v>214.2643698687643</v>
       </c>
       <c r="I26" t="n">
         <v>43.92833941312575</v>
       </c>
       <c r="J26" t="n">
-        <v>123.2956646626854</v>
+        <v>123.2956646626856</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9915156028197</v>
+        <v>362.9915156028198</v>
       </c>
       <c r="L26" t="n">
-        <v>712.6320415932828</v>
+        <v>712.632041593283</v>
       </c>
       <c r="M26" t="n">
         <v>1118.281040747626</v>
@@ -6248,28 +6248,28 @@
         <v>2196.416970656288</v>
       </c>
       <c r="R26" t="n">
-        <v>2196.416970656288</v>
+        <v>2113.90073672428</v>
       </c>
       <c r="S26" t="n">
-        <v>2196.416970656288</v>
+        <v>2113.90073672428</v>
       </c>
       <c r="T26" t="n">
-        <v>2196.416970656288</v>
+        <v>1893.350534689325</v>
       </c>
       <c r="U26" t="n">
-        <v>2196.416970656288</v>
+        <v>1639.553742405529</v>
       </c>
       <c r="V26" t="n">
-        <v>2196.416970656288</v>
+        <v>1308.490855061959</v>
       </c>
       <c r="W26" t="n">
-        <v>2196.416970656288</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="X26" t="n">
-        <v>2196.416970656288</v>
+        <v>955.7221997918448</v>
       </c>
       <c r="Y26" t="n">
-        <v>1954.530552412261</v>
+        <v>955.7221997918448</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>989.0396948739937</v>
+        <v>918.9360131932054</v>
       </c>
       <c r="C27" t="n">
-        <v>814.5866655928667</v>
+        <v>744.4829839120785</v>
       </c>
       <c r="D27" t="n">
-        <v>665.6522559316154</v>
+        <v>595.5485742508272</v>
       </c>
       <c r="E27" t="n">
-        <v>506.41480092616</v>
+        <v>436.3111192453716</v>
       </c>
       <c r="F27" t="n">
-        <v>359.8802429530449</v>
+        <v>289.7765612722566</v>
       </c>
       <c r="G27" t="n">
-        <v>221.7360004683163</v>
+        <v>151.6323187875279</v>
       </c>
       <c r="H27" t="n">
-        <v>114.0320210939141</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="I27" t="n">
         <v>43.92833941312575</v>
       </c>
       <c r="J27" t="n">
-        <v>60.82927510565059</v>
+        <v>97.50559492815029</v>
       </c>
       <c r="K27" t="n">
-        <v>60.82927510565059</v>
+        <v>315.6985013778407</v>
       </c>
       <c r="L27" t="n">
-        <v>415.620960791168</v>
+        <v>670.490187063358</v>
       </c>
       <c r="M27" t="n">
-        <v>881.6253451837686</v>
+        <v>1136.494571455959</v>
       </c>
       <c r="N27" t="n">
         <v>1375.670492379376</v>
@@ -6330,25 +6330,25 @@
         <v>2131.667037677053</v>
       </c>
       <c r="S27" t="n">
-        <v>1969.145213828588</v>
+        <v>2044.184259425367</v>
       </c>
       <c r="T27" t="n">
-        <v>1969.145213828588</v>
+        <v>1844.362005639882</v>
       </c>
       <c r="U27" t="n">
-        <v>1827.10418759275</v>
+        <v>1616.176978358682</v>
       </c>
       <c r="V27" t="n">
-        <v>1827.10418759275</v>
+        <v>1381.02487012694</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.866830864548</v>
+        <v>1126.787513398738</v>
       </c>
       <c r="X27" t="n">
-        <v>1365.015330659015</v>
+        <v>918.9360131932054</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.255031894062</v>
+        <v>918.9360131932054</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6403,19 @@
         <v>557.1061444754525</v>
       </c>
       <c r="Q28" t="n">
-        <v>557.1061444754525</v>
+        <v>511.2529285198555</v>
       </c>
       <c r="R28" t="n">
-        <v>557.1061444754525</v>
+        <v>354.2805263845685</v>
       </c>
       <c r="S28" t="n">
-        <v>557.1061444754525</v>
+        <v>136.5713691908679</v>
       </c>
       <c r="T28" t="n">
-        <v>557.1061444754525</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="U28" t="n">
-        <v>267.9218276072916</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="V28" t="n">
         <v>43.92833941312575</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>529.0001624195518</v>
+        <v>1809.817130592166</v>
       </c>
       <c r="C29" t="n">
-        <v>429.71659201137</v>
+        <v>1440.854613651754</v>
       </c>
       <c r="D29" t="n">
-        <v>429.71659201137</v>
+        <v>1082.588915045004</v>
       </c>
       <c r="E29" t="n">
-        <v>43.92833941312575</v>
+        <v>696.8006624467594</v>
       </c>
       <c r="F29" t="n">
-        <v>43.92833941312575</v>
+        <v>696.8006624467594</v>
       </c>
       <c r="G29" t="n">
-        <v>43.92833941312575</v>
+        <v>278.3992678213555</v>
       </c>
       <c r="H29" t="n">
-        <v>43.92833941312575</v>
+        <v>214.2643698687643</v>
       </c>
       <c r="I29" t="n">
         <v>43.92833941312575</v>
@@ -6464,10 +6464,10 @@
         <v>123.2956646626856</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9915156028197</v>
+        <v>362.9915156028199</v>
       </c>
       <c r="L29" t="n">
-        <v>712.6320415932828</v>
+        <v>712.632041593283</v>
       </c>
       <c r="M29" t="n">
         <v>1118.281040747626</v>
@@ -6488,25 +6488,25 @@
         <v>2196.416970656288</v>
       </c>
       <c r="S29" t="n">
-        <v>2010.267980064136</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="T29" t="n">
-        <v>2010.267980064136</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="U29" t="n">
-        <v>2010.267980064136</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="V29" t="n">
-        <v>1679.205092720565</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="W29" t="n">
-        <v>1679.205092720565</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="X29" t="n">
-        <v>1305.739334459485</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="Y29" t="n">
-        <v>915.6000024836735</v>
+        <v>2196.416970656288</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>989.0396948739937</v>
+        <v>673.0877913340745</v>
       </c>
       <c r="C30" t="n">
-        <v>814.5866655928667</v>
+        <v>498.6347620529475</v>
       </c>
       <c r="D30" t="n">
-        <v>665.6522559316154</v>
+        <v>349.7003523916962</v>
       </c>
       <c r="E30" t="n">
-        <v>506.41480092616</v>
+        <v>190.4628973862408</v>
       </c>
       <c r="F30" t="n">
-        <v>359.8802429530449</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="G30" t="n">
-        <v>221.7360004683163</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="H30" t="n">
-        <v>114.0320210939141</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="I30" t="n">
         <v>43.92833941312575</v>
@@ -6546,16 +6546,16 @@
         <v>315.6985013778407</v>
       </c>
       <c r="L30" t="n">
-        <v>670.490187063358</v>
+        <v>415.620960791168</v>
       </c>
       <c r="M30" t="n">
-        <v>1136.494571455959</v>
+        <v>881.6253451837686</v>
       </c>
       <c r="N30" t="n">
-        <v>1630.539718651566</v>
+        <v>1375.670492379376</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.078830530537</v>
+        <v>1761.209604258347</v>
       </c>
       <c r="P30" t="n">
         <v>2053.63566359233</v>
@@ -6564,28 +6564,28 @@
         <v>2196.416970656288</v>
       </c>
       <c r="R30" t="n">
-        <v>2196.416970656288</v>
+        <v>2174.311673351258</v>
       </c>
       <c r="S30" t="n">
-        <v>2196.416970656288</v>
+        <v>2174.311673351258</v>
       </c>
       <c r="T30" t="n">
-        <v>2196.416970656288</v>
+        <v>1974.489419565773</v>
       </c>
       <c r="U30" t="n">
-        <v>1968.231943375088</v>
+        <v>1746.304392284573</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.079835143345</v>
+        <v>1511.152284052831</v>
       </c>
       <c r="W30" t="n">
-        <v>1478.842478415144</v>
+        <v>1256.914927324629</v>
       </c>
       <c r="X30" t="n">
-        <v>1270.990978209611</v>
+        <v>1049.063427119096</v>
       </c>
       <c r="Y30" t="n">
-        <v>1063.230679444657</v>
+        <v>841.3031283541425</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1683.239165593961</v>
+        <v>2000.34834568805</v>
       </c>
       <c r="C31" t="n">
-        <v>1683.239165593961</v>
+        <v>2000.34834568805</v>
       </c>
       <c r="D31" t="n">
-        <v>1683.239165593961</v>
+        <v>2000.34834568805</v>
       </c>
       <c r="E31" t="n">
-        <v>1683.239165593961</v>
+        <v>1852.435252105657</v>
       </c>
       <c r="F31" t="n">
-        <v>1683.239165593961</v>
+        <v>1852.435252105657</v>
       </c>
       <c r="G31" t="n">
         <v>1683.239165593961</v>
@@ -6643,28 +6643,28 @@
         <v>2196.416970656288</v>
       </c>
       <c r="R31" t="n">
-        <v>2196.416970656288</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="S31" t="n">
-        <v>2196.416970656288</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="T31" t="n">
-        <v>2196.416970656288</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.232653788127</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.232653788127</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.239165593961</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="X31" t="n">
-        <v>1683.239165593961</v>
+        <v>2039.444568521001</v>
       </c>
       <c r="Y31" t="n">
-        <v>1683.239165593961</v>
+        <v>2039.444568521001</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1233.528808024202</v>
+        <v>813.1799428094838</v>
       </c>
       <c r="C32" t="n">
-        <v>864.5662910837907</v>
+        <v>813.1799428094838</v>
       </c>
       <c r="D32" t="n">
-        <v>864.5662910837907</v>
+        <v>454.9142442027333</v>
       </c>
       <c r="E32" t="n">
-        <v>478.7780384855465</v>
+        <v>454.9142442027333</v>
       </c>
       <c r="F32" t="n">
-        <v>67.7921336959389</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="G32" t="n">
-        <v>67.7921336959389</v>
+        <v>43.92833941312575</v>
       </c>
       <c r="H32" t="n">
         <v>43.92833941312575</v>
@@ -6701,7 +6701,7 @@
         <v>123.2956646626856</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9915156028199</v>
+        <v>362.9915156028198</v>
       </c>
       <c r="L32" t="n">
         <v>712.632041593283</v>
@@ -6725,25 +6725,25 @@
         <v>2196.416970656288</v>
       </c>
       <c r="S32" t="n">
-        <v>2010.267980064136</v>
+        <v>2137.408117771086</v>
       </c>
       <c r="T32" t="n">
-        <v>2010.267980064136</v>
+        <v>2137.408117771086</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.267980064136</v>
+        <v>1883.61132548729</v>
       </c>
       <c r="V32" t="n">
-        <v>2010.267980064136</v>
+        <v>1552.54843814372</v>
       </c>
       <c r="W32" t="n">
-        <v>2010.267980064136</v>
+        <v>1199.779782873606</v>
       </c>
       <c r="X32" t="n">
-        <v>2010.267980064136</v>
+        <v>1199.779782873606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1620.128648088324</v>
+        <v>1199.779782873606</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>780.7917707084767</v>
+        <v>532.6712647906395</v>
       </c>
       <c r="C33" t="n">
-        <v>606.3387414273498</v>
+        <v>358.2182355095125</v>
       </c>
       <c r="D33" t="n">
-        <v>457.4043317660984</v>
+        <v>358.2182355095125</v>
       </c>
       <c r="E33" t="n">
-        <v>298.1668767606429</v>
+        <v>198.980780504057</v>
       </c>
       <c r="F33" t="n">
-        <v>151.6323187875279</v>
+        <v>52.44622253094198</v>
       </c>
       <c r="G33" t="n">
-        <v>151.6323187875279</v>
+        <v>52.44622253094198</v>
       </c>
       <c r="H33" t="n">
         <v>43.92833941312575</v>
@@ -6777,25 +6777,25 @@
         <v>43.92833941312575</v>
       </c>
       <c r="J33" t="n">
-        <v>43.92833941312575</v>
+        <v>97.50559492815029</v>
       </c>
       <c r="K33" t="n">
-        <v>60.82927510565059</v>
+        <v>97.50559492815029</v>
       </c>
       <c r="L33" t="n">
-        <v>415.620960791168</v>
+        <v>452.2972806136677</v>
       </c>
       <c r="M33" t="n">
-        <v>881.6253451837686</v>
+        <v>918.3016650062682</v>
       </c>
       <c r="N33" t="n">
-        <v>1375.670492379376</v>
+        <v>1412.346812201876</v>
       </c>
       <c r="O33" t="n">
-        <v>1761.209604258347</v>
+        <v>1797.885924080847</v>
       </c>
       <c r="P33" t="n">
-        <v>2053.63566359233</v>
+        <v>2090.311983414829</v>
       </c>
       <c r="Q33" t="n">
         <v>2196.416970656288</v>
@@ -6804,25 +6804,25 @@
         <v>2196.416970656288</v>
       </c>
       <c r="S33" t="n">
-        <v>2082.193398940175</v>
+        <v>2033.895146807823</v>
       </c>
       <c r="T33" t="n">
-        <v>2082.193398940175</v>
+        <v>1834.072893022338</v>
       </c>
       <c r="U33" t="n">
-        <v>1854.008371658976</v>
+        <v>1605.887865741139</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.856263427233</v>
+        <v>1370.735757509396</v>
       </c>
       <c r="W33" t="n">
-        <v>1364.618906699031</v>
+        <v>1116.498400781194</v>
       </c>
       <c r="X33" t="n">
-        <v>1156.767406493499</v>
+        <v>908.6469005756614</v>
       </c>
       <c r="Y33" t="n">
-        <v>949.0071077285447</v>
+        <v>700.8866018107076</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="C34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="D34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="E34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="F34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="G34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="H34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="I34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="J34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="K34" t="n">
-        <v>77.87945644587913</v>
+        <v>1717.190282626714</v>
       </c>
       <c r="L34" t="n">
-        <v>176.8516318902848</v>
+        <v>1816.16245807112</v>
       </c>
       <c r="M34" t="n">
-        <v>291.5930370679473</v>
+        <v>1930.903863248782</v>
       </c>
       <c r="N34" t="n">
-        <v>409.0407645119888</v>
+        <v>2048.351590692824</v>
       </c>
       <c r="O34" t="n">
-        <v>501.506454757607</v>
+        <v>2140.817280938442</v>
       </c>
       <c r="P34" t="n">
-        <v>557.1061444754525</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="Q34" t="n">
-        <v>557.1061444754525</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="R34" t="n">
-        <v>557.1061444754525</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="S34" t="n">
-        <v>557.1061444754525</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="T34" t="n">
-        <v>557.1061444754525</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="U34" t="n">
-        <v>333.3455094500864</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="V34" t="n">
-        <v>333.3455094500864</v>
+        <v>2196.416970656288</v>
       </c>
       <c r="W34" t="n">
-        <v>43.92833941312575</v>
+        <v>1906.999800619327</v>
       </c>
       <c r="X34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.92833941312575</v>
+        <v>1683.239165593961</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1004.810205564046</v>
+        <v>2117.644459159361</v>
       </c>
       <c r="C35" t="n">
-        <v>1004.810205564046</v>
+        <v>1947.470292751913</v>
       </c>
       <c r="D35" t="n">
-        <v>1004.810205564046</v>
+        <v>1589.204594145163</v>
       </c>
       <c r="E35" t="n">
-        <v>1004.810205564046</v>
+        <v>1203.416341546918</v>
       </c>
       <c r="F35" t="n">
         <v>792.4304367573109</v>
@@ -6947,10 +6947,10 @@
         <v>1116.705590517687</v>
       </c>
       <c r="N35" t="n">
-        <v>1514.286417025506</v>
+        <v>1437.089355758518</v>
       </c>
       <c r="O35" t="n">
-        <v>1844.523079601283</v>
+        <v>1767.326018334295</v>
       </c>
       <c r="P35" t="n">
         <v>2011.500986639972</v>
@@ -6974,13 +6974,13 @@
         <v>2117.644459159361</v>
       </c>
       <c r="W35" t="n">
-        <v>1764.875803889247</v>
+        <v>2117.644459159361</v>
       </c>
       <c r="X35" t="n">
-        <v>1391.410045628167</v>
+        <v>2117.644459159361</v>
       </c>
       <c r="Y35" t="n">
-        <v>1391.410045628167</v>
+        <v>2117.644459159361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>616.4205771421778</v>
+        <v>779.2163204785383</v>
       </c>
       <c r="C36" t="n">
-        <v>441.9675478610508</v>
+        <v>604.7632911974113</v>
       </c>
       <c r="D36" t="n">
-        <v>293.0331381997995</v>
+        <v>455.8288815361599</v>
       </c>
       <c r="E36" t="n">
-        <v>133.795683194344</v>
+        <v>296.5914265307044</v>
       </c>
       <c r="F36" t="n">
-        <v>42.35288918318723</v>
+        <v>150.0568685575894</v>
       </c>
       <c r="G36" t="n">
-        <v>42.35288918318723</v>
+        <v>150.0568685575894</v>
       </c>
       <c r="H36" t="n">
         <v>42.35288918318723</v>
@@ -7014,25 +7014,25 @@
         <v>42.35288918318723</v>
       </c>
       <c r="J36" t="n">
-        <v>95.93014469821176</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1230511479022</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="L36" t="n">
-        <v>668.9147368334195</v>
+        <v>397.1445748687046</v>
       </c>
       <c r="M36" t="n">
-        <v>1134.91912122602</v>
+        <v>863.1489592613052</v>
       </c>
       <c r="N36" t="n">
-        <v>1589.324040216432</v>
+        <v>1357.194106456913</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.863152095403</v>
+        <v>1742.733218335884</v>
       </c>
       <c r="P36" t="n">
-        <v>1974.863152095403</v>
+        <v>2035.159277669866</v>
       </c>
       <c r="Q36" t="n">
         <v>2117.644459159361</v>
@@ -7041,25 +7041,25 @@
         <v>2117.644459159361</v>
       </c>
       <c r="S36" t="n">
-        <v>2117.644459159361</v>
+        <v>1955.122635310897</v>
       </c>
       <c r="T36" t="n">
-        <v>1917.822205373876</v>
+        <v>1955.122635310897</v>
       </c>
       <c r="U36" t="n">
-        <v>1689.637178092677</v>
+        <v>1852.432921429037</v>
       </c>
       <c r="V36" t="n">
-        <v>1454.485069860934</v>
+        <v>1617.280813197294</v>
       </c>
       <c r="W36" t="n">
-        <v>1200.247713132733</v>
+        <v>1363.043456469093</v>
       </c>
       <c r="X36" t="n">
-        <v>992.3962129271997</v>
+        <v>1155.19195626356</v>
       </c>
       <c r="Y36" t="n">
-        <v>784.6359141622459</v>
+        <v>947.4316574986062</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="C37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="D37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="E37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="F37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="G37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="H37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="I37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="J37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="K37" t="n">
-        <v>1638.417771129788</v>
+        <v>76.3040062159406</v>
       </c>
       <c r="L37" t="n">
-        <v>1737.389946574194</v>
+        <v>175.2761816603463</v>
       </c>
       <c r="M37" t="n">
-        <v>1852.131351751856</v>
+        <v>290.0175868380088</v>
       </c>
       <c r="N37" t="n">
-        <v>1969.579079195898</v>
+        <v>407.4653142820503</v>
       </c>
       <c r="O37" t="n">
-        <v>2062.044769441516</v>
+        <v>499.9310045276685</v>
       </c>
       <c r="P37" t="n">
-        <v>2117.644459159361</v>
+        <v>555.530694245514</v>
       </c>
       <c r="Q37" t="n">
-        <v>2071.791243203764</v>
+        <v>555.530694245514</v>
       </c>
       <c r="R37" t="n">
-        <v>1914.818841068477</v>
+        <v>555.530694245514</v>
       </c>
       <c r="S37" t="n">
-        <v>1914.818841068477</v>
+        <v>555.530694245514</v>
       </c>
       <c r="T37" t="n">
-        <v>1914.818841068477</v>
+        <v>555.530694245514</v>
       </c>
       <c r="U37" t="n">
-        <v>1859.151142302921</v>
+        <v>555.530694245514</v>
       </c>
       <c r="V37" t="n">
-        <v>1604.466654097035</v>
+        <v>331.7700592201479</v>
       </c>
       <c r="W37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="X37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="Y37" t="n">
-        <v>1604.466654097035</v>
+        <v>42.35288918318723</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>521.2115677619101</v>
+        <v>1120.355085084473</v>
       </c>
       <c r="C38" t="n">
-        <v>521.2115677619101</v>
+        <v>751.392568144061</v>
       </c>
       <c r="D38" t="n">
-        <v>521.2115677619101</v>
+        <v>393.1268695373105</v>
       </c>
       <c r="E38" t="n">
-        <v>521.2115677619101</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="F38" t="n">
-        <v>212.6889196388258</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="G38" t="n">
-        <v>212.6889196388258</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="H38" t="n">
-        <v>212.6889196388258</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="I38" t="n">
         <v>42.35288918318723</v>
       </c>
       <c r="J38" t="n">
-        <v>44.52315316575923</v>
+        <v>121.7202144327471</v>
       </c>
       <c r="K38" t="n">
-        <v>284.2190041058935</v>
+        <v>361.4160653728813</v>
       </c>
       <c r="L38" t="n">
         <v>633.8595300963566</v>
@@ -7196,28 +7196,28 @@
         <v>2117.644459159361</v>
       </c>
       <c r="R38" t="n">
-        <v>2035.128225227354</v>
+        <v>2117.644459159361</v>
       </c>
       <c r="S38" t="n">
-        <v>1848.979234635202</v>
+        <v>2117.644459159361</v>
       </c>
       <c r="T38" t="n">
-        <v>1848.979234635202</v>
+        <v>1897.094257124406</v>
       </c>
       <c r="U38" t="n">
-        <v>1595.182442351407</v>
+        <v>1897.094257124406</v>
       </c>
       <c r="V38" t="n">
-        <v>1264.119555007836</v>
+        <v>1897.094257124406</v>
       </c>
       <c r="W38" t="n">
-        <v>911.3508997377219</v>
+        <v>1897.094257124406</v>
       </c>
       <c r="X38" t="n">
-        <v>911.3508997377219</v>
+        <v>1897.094257124406</v>
       </c>
       <c r="Y38" t="n">
-        <v>521.2115677619101</v>
+        <v>1506.954925148594</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>389.1488203144784</v>
+        <v>588.9710740999635</v>
       </c>
       <c r="C39" t="n">
-        <v>214.6957910333514</v>
+        <v>588.9710740999635</v>
       </c>
       <c r="D39" t="n">
-        <v>65.76138137210015</v>
+        <v>440.0366644387123</v>
       </c>
       <c r="E39" t="n">
-        <v>65.76138137210015</v>
+        <v>280.7992094332567</v>
       </c>
       <c r="F39" t="n">
-        <v>65.76138137210015</v>
+        <v>280.7992094332567</v>
       </c>
       <c r="G39" t="n">
-        <v>65.76138137210015</v>
+        <v>142.6549669485281</v>
       </c>
       <c r="H39" t="n">
-        <v>42.35288918318723</v>
+        <v>112.4565708639756</v>
       </c>
       <c r="I39" t="n">
         <v>42.35288918318723</v>
       </c>
       <c r="J39" t="n">
-        <v>95.93014469821176</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="K39" t="n">
-        <v>314.1230511479022</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="L39" t="n">
-        <v>668.9147368334195</v>
+        <v>397.1445748687046</v>
       </c>
       <c r="M39" t="n">
-        <v>1134.91912122602</v>
+        <v>863.1489592613052</v>
       </c>
       <c r="N39" t="n">
-        <v>1628.964268421627</v>
+        <v>1357.194106456913</v>
       </c>
       <c r="O39" t="n">
-        <v>2014.503380300599</v>
+        <v>1742.733218335884</v>
       </c>
       <c r="P39" t="n">
-        <v>2117.644459159361</v>
+        <v>2035.159277669866</v>
       </c>
       <c r="Q39" t="n">
         <v>2117.644459159361</v>
@@ -7281,22 +7281,22 @@
         <v>1890.372702331662</v>
       </c>
       <c r="T39" t="n">
-        <v>1690.550448546177</v>
+        <v>1890.372702331662</v>
       </c>
       <c r="U39" t="n">
-        <v>1462.365421264977</v>
+        <v>1662.187675050463</v>
       </c>
       <c r="V39" t="n">
-        <v>1227.213313033235</v>
+        <v>1427.03556681872</v>
       </c>
       <c r="W39" t="n">
-        <v>972.9759563050332</v>
+        <v>1172.798210090518</v>
       </c>
       <c r="X39" t="n">
-        <v>765.1244560995003</v>
+        <v>964.9467098849855</v>
       </c>
       <c r="Y39" t="n">
-        <v>557.3641573345465</v>
+        <v>757.1864111200316</v>
       </c>
     </row>
     <row r="40">
@@ -7354,22 +7354,22 @@
         <v>555.530694245514</v>
       </c>
       <c r="R40" t="n">
-        <v>488.0515972749051</v>
+        <v>555.530694245514</v>
       </c>
       <c r="S40" t="n">
-        <v>270.3424400812046</v>
+        <v>555.530694245514</v>
       </c>
       <c r="T40" t="n">
-        <v>270.3424400812046</v>
+        <v>555.530694245514</v>
       </c>
       <c r="U40" t="n">
-        <v>270.3424400812046</v>
+        <v>266.3463773773531</v>
       </c>
       <c r="V40" t="n">
-        <v>270.3424400812046</v>
+        <v>266.3463773773531</v>
       </c>
       <c r="W40" t="n">
-        <v>270.3424400812046</v>
+        <v>42.35288918318723</v>
       </c>
       <c r="X40" t="n">
         <v>42.35288918318723</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>248.6650740163232</v>
+        <v>440.0449849310966</v>
       </c>
       <c r="C41" t="n">
-        <v>248.6650740163232</v>
+        <v>71.0824679906849</v>
       </c>
       <c r="D41" t="n">
-        <v>248.6650740163232</v>
+        <v>71.0824679906849</v>
       </c>
       <c r="E41" t="n">
-        <v>248.6650740163232</v>
+        <v>71.0824679906849</v>
       </c>
       <c r="F41" t="n">
-        <v>248.6650740163232</v>
+        <v>71.0824679906849</v>
       </c>
       <c r="G41" t="n">
-        <v>248.6650740163232</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="I41" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="J41" t="n">
-        <v>33.45532298328234</v>
+        <v>112.8226482328422</v>
       </c>
       <c r="K41" t="n">
-        <v>273.1511739234166</v>
+        <v>352.5184991729765</v>
       </c>
       <c r="L41" t="n">
-        <v>622.7916999138797</v>
+        <v>702.1590251634395</v>
       </c>
       <c r="M41" t="n">
-        <v>1028.440699068223</v>
+        <v>1107.808024317782</v>
       </c>
       <c r="N41" t="n">
-        <v>1426.021525576042</v>
+        <v>1322.447708339052</v>
       </c>
       <c r="O41" t="n">
-        <v>1672.766149164117</v>
+        <v>1322.447708339052</v>
       </c>
       <c r="P41" t="n">
-        <v>1672.766149164117</v>
+        <v>1566.622676644728</v>
       </c>
       <c r="Q41" t="n">
         <v>1672.766149164117</v>
       </c>
       <c r="R41" t="n">
-        <v>1672.766149164117</v>
+        <v>1590.24991523211</v>
       </c>
       <c r="S41" t="n">
-        <v>1486.617158571966</v>
+        <v>1590.24991523211</v>
       </c>
       <c r="T41" t="n">
-        <v>1266.06695653701</v>
+        <v>1590.24991523211</v>
       </c>
       <c r="U41" t="n">
-        <v>1012.270164253215</v>
+        <v>1590.24991523211</v>
       </c>
       <c r="V41" t="n">
-        <v>1012.270164253215</v>
+        <v>1590.24991523211</v>
       </c>
       <c r="W41" t="n">
-        <v>1012.270164253215</v>
+        <v>1590.24991523211</v>
       </c>
       <c r="X41" t="n">
-        <v>638.8044059921349</v>
+        <v>1216.78415697103</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.6650740163232</v>
+        <v>826.6448249952184</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>359.882309289721</v>
+        <v>654.2244594158448</v>
       </c>
       <c r="C42" t="n">
-        <v>359.882309289721</v>
+        <v>479.7714301347178</v>
       </c>
       <c r="D42" t="n">
-        <v>359.882309289721</v>
+        <v>330.8370204734665</v>
       </c>
       <c r="E42" t="n">
-        <v>318.134123441126</v>
+        <v>171.599565468011</v>
       </c>
       <c r="F42" t="n">
         <v>171.599565468011</v>
       </c>
       <c r="G42" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="I42" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="J42" t="n">
         <v>87.03257849830689</v>
       </c>
       <c r="K42" t="n">
-        <v>305.2254849479973</v>
+        <v>104.4161077633906</v>
       </c>
       <c r="L42" t="n">
-        <v>660.0171706335148</v>
+        <v>459.207793448908</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.026792551634</v>
+        <v>873.2174153670271</v>
       </c>
       <c r="N42" t="n">
-        <v>1093.522989147123</v>
+        <v>1287.227037285146</v>
       </c>
       <c r="O42" t="n">
-        <v>1479.062101026094</v>
+        <v>1672.766149164117</v>
       </c>
       <c r="P42" t="n">
-        <v>1529.984842100159</v>
+        <v>1672.766149164117</v>
       </c>
       <c r="Q42" t="n">
         <v>1672.766149164117</v>
       </c>
       <c r="R42" t="n">
-        <v>1608.016216184882</v>
+        <v>1672.766149164117</v>
       </c>
       <c r="S42" t="n">
-        <v>1445.494392336418</v>
+        <v>1511.651515181342</v>
       </c>
       <c r="T42" t="n">
-        <v>1245.672138550933</v>
+        <v>1311.829261395857</v>
       </c>
       <c r="U42" t="n">
-        <v>1017.487111269733</v>
+        <v>1311.829261395857</v>
       </c>
       <c r="V42" t="n">
-        <v>782.3350030379906</v>
+        <v>1076.677153164114</v>
       </c>
       <c r="W42" t="n">
-        <v>528.0976463097891</v>
+        <v>822.4397964359127</v>
       </c>
       <c r="X42" t="n">
-        <v>528.0976463097891</v>
+        <v>822.4397964359127</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.0976463097891</v>
+        <v>822.4397964359127</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="C43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="D43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="E43" t="n">
-        <v>509.0348927651592</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="F43" t="n">
-        <v>362.1449452672488</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="G43" t="n">
-        <v>192.9488587555525</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="J43" t="n">
-        <v>33.45532298328234</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="K43" t="n">
         <v>67.40644001603573</v>
@@ -7597,22 +7597,22 @@
         <v>546.6331280456092</v>
       </c>
       <c r="T43" t="n">
-        <v>546.6331280456092</v>
+        <v>318.486263100452</v>
       </c>
       <c r="U43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="V43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="W43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="X43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
       <c r="Y43" t="n">
-        <v>546.6331280456092</v>
+        <v>33.45532298328235</v>
       </c>
     </row>
     <row r="44">
@@ -8690,25 +8690,25 @@
         <v>108.6207276427095</v>
       </c>
       <c r="K11" t="n">
-        <v>101.7215192937456</v>
+        <v>82.02839141951401</v>
       </c>
       <c r="L11" t="n">
         <v>83.38641201515441</v>
       </c>
       <c r="M11" t="n">
-        <v>39.76706970056696</v>
+        <v>59.46019757479854</v>
       </c>
       <c r="N11" t="n">
         <v>35.75012995964187</v>
       </c>
       <c r="O11" t="n">
-        <v>47.22779482256661</v>
+        <v>66.92092269679819</v>
       </c>
       <c r="P11" t="n">
         <v>75.1573260445368</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.7924897266723</v>
+        <v>105.0993618524407</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>91.66572330047423</v>
+        <v>71.97259542624265</v>
       </c>
       <c r="K12" t="n">
-        <v>63.76148968510272</v>
+        <v>44.06836181087114</v>
       </c>
       <c r="L12" t="n">
-        <v>26.35591552053189</v>
+        <v>12.46490521707801</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>13.89101030345387</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>4.428872934334294</v>
       </c>
       <c r="P12" t="n">
-        <v>23.08291072682354</v>
+        <v>42.77603860105512</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.85374524700283</v>
+        <v>85.54687312123441</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>92.14283661004232</v>
+        <v>91.34715467572993</v>
       </c>
       <c r="L13" t="n">
-        <v>62.50280715326591</v>
+        <v>82.19593502749748</v>
       </c>
       <c r="M13" t="n">
-        <v>62.60925163907947</v>
+        <v>82.30237951331105</v>
       </c>
       <c r="N13" t="n">
         <v>72.87677659339899</v>
       </c>
       <c r="O13" t="n">
-        <v>88.53942518901556</v>
+        <v>69.64197924909638</v>
       </c>
       <c r="P13" t="n">
-        <v>98.53838844297415</v>
+        <v>78.84526056874257</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.92759976847796</v>
+        <v>108.6207276427095</v>
       </c>
       <c r="K14" t="n">
         <v>82.02839141951401</v>
       </c>
       <c r="L14" t="n">
-        <v>64.48896607523523</v>
+        <v>83.38641201515441</v>
       </c>
       <c r="M14" t="n">
-        <v>39.76706970056696</v>
+        <v>59.46019757479854</v>
       </c>
       <c r="N14" t="n">
-        <v>54.64757589956105</v>
+        <v>35.75012995964187</v>
       </c>
       <c r="O14" t="n">
-        <v>66.92092269679819</v>
+        <v>47.22779482256661</v>
       </c>
       <c r="P14" t="n">
-        <v>94.85045391876838</v>
+        <v>75.1573260445368</v>
       </c>
       <c r="Q14" t="n">
         <v>124.7924897266723</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>90.87004136616183</v>
+        <v>91.66572330047423</v>
       </c>
       <c r="K15" t="n">
-        <v>63.76148968510272</v>
+        <v>62.96580775079032</v>
       </c>
       <c r="L15" t="n">
         <v>12.46490521707801</v>
@@ -9085,19 +9085,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>72.44970873581074</v>
+        <v>92.14283661004232</v>
       </c>
       <c r="L16" t="n">
-        <v>62.50280715326591</v>
+        <v>81.40025309318509</v>
       </c>
       <c r="M16" t="n">
-        <v>82.30237951331105</v>
+        <v>62.60925163907947</v>
       </c>
       <c r="N16" t="n">
         <v>72.87677659339899</v>
       </c>
       <c r="O16" t="n">
-        <v>88.53942518901556</v>
+        <v>69.64197924909638</v>
       </c>
       <c r="P16" t="n">
         <v>98.53838844297415</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>88.92759976847796</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>100.436065747798</v>
+        <v>212.9410967925565</v>
       </c>
       <c r="L17" t="n">
         <v>195.4016714482777</v>
       </c>
       <c r="M17" t="n">
-        <v>39.76706970056696</v>
+        <v>170.6797750736095</v>
       </c>
       <c r="N17" t="n">
-        <v>166.6628353326844</v>
+        <v>35.75012995964187</v>
       </c>
       <c r="O17" t="n">
-        <v>178.1405001956091</v>
+        <v>47.22779482256661</v>
       </c>
       <c r="P17" t="n">
         <v>75.1573260445368</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>150.5536495845928</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,16 +9243,16 @@
         <v>71.97259542624265</v>
       </c>
       <c r="K18" t="n">
-        <v>44.06836181087114</v>
+        <v>169.691664946619</v>
       </c>
       <c r="L18" t="n">
-        <v>143.3776105901205</v>
+        <v>12.46490521707801</v>
       </c>
       <c r="M18" t="n">
         <v>125.9062697365772</v>
       </c>
       <c r="N18" t="n">
-        <v>105.9301752615164</v>
+        <v>111.2195774988109</v>
       </c>
       <c r="O18" t="n">
         <v>135.3415783073768</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>89.04424764091462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>44.06836181087114</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>61.01910573873516</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>89.04424764091419</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>44.06836181087112</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>61.01910573873565</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>89.04424764091419</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>44.06836181087112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>221.8987114423516</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>113.3966824022571</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>61.01910573873516</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>71.97259542624263</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>61.14001402554268</v>
+        <v>44.06836181087112</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>173.0305000363546</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,13 +10595,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>359.3700948493702</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>243.8218786088686</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>71.97259542624263</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>44.06836181087112</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>439.3017397928512</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>23.08291072682351</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>149.1721103879067</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.11978560945975</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>339.6843849878364</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>71.97259542624263</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>44.06836181087112</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>127.2658186649677</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.85374524700282</v>
+        <v>149.1721103879067</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>88.92759976847795</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,16 +11069,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>252.5578915972875</v>
       </c>
       <c r="O41" t="n">
-        <v>296.4647883458754</v>
+        <v>47.22779482256658</v>
       </c>
       <c r="P41" t="n">
-        <v>75.15732604453677</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>105.0993618524407</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>61.62748228065269</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>413.1851016545639</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>398.4984094167977</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>74.52002292284878</v>
+        <v>23.08291072682351</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>65.85374524700282</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>363.040713789249</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>345.5797638967759</v>
       </c>
       <c r="D11" t="n">
-        <v>337.3373345890598</v>
+        <v>334.9899137464514</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2173806791498</v>
+        <v>396.8716736475266</v>
       </c>
       <c r="H11" t="n">
         <v>328.3593914192326</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>81.69107159268736</v>
+        <v>61.99794371845579</v>
       </c>
       <c r="S11" t="n">
         <v>184.2875006862301</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.544810781822</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.1874766182442</v>
+        <v>146.8400557756358</v>
       </c>
       <c r="C12" t="n">
-        <v>153.0153711140842</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23394,16 +23394,16 @@
         <v>225.9031770083874</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>213.1074592751937</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>232.001855286688</v>
       </c>
       <c r="X12" t="n">
-        <v>186.0798573292459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.9895679030728</v>
+        <v>188.3369887456812</v>
       </c>
     </row>
     <row r="13">
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>131.2697659865892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>125.7279201486997</v>
       </c>
       <c r="G13" t="n">
-        <v>147.8109977723477</v>
+        <v>167.5041256465793</v>
       </c>
       <c r="H13" t="n">
         <v>157.8986004145475</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.39468379604111</v>
+        <v>25.70155592180954</v>
       </c>
       <c r="R13" t="n">
         <v>155.4026781139341</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.363948357414</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,22 +23498,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>334.9899137464514</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>387.1829178674799</v>
       </c>
       <c r="G14" t="n">
-        <v>394.5242528049182</v>
+        <v>414.2173806791498</v>
       </c>
       <c r="H14" t="n">
         <v>328.3593914192326</v>
       </c>
       <c r="I14" t="n">
-        <v>148.9395422768506</v>
+        <v>168.6326701510822</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>184.2875006862301</v>
       </c>
       <c r="T14" t="n">
-        <v>218.3447000146056</v>
+        <v>198.6515721403741</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2588243609577</v>
+        <v>233.9131173293345</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>352.3853936468458</v>
+        <v>350.0379728042375</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23622,10 +23622,10 @@
         <v>64.10243364944259</v>
       </c>
       <c r="S15" t="n">
-        <v>143.5508985783567</v>
+        <v>160.8966056099798</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1309033733986</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U15" t="n">
         <v>206.2100491341558</v>
@@ -23634,13 +23634,13 @@
         <v>213.1074592751937</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>232.001855286688</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>188.3369887456812</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23668,13 @@
         <v>167.5041256465793</v>
       </c>
       <c r="H16" t="n">
-        <v>157.8986004145475</v>
+        <v>138.2054725403159</v>
       </c>
       <c r="I16" t="n">
-        <v>140.8094560281918</v>
+        <v>121.1163281539603</v>
       </c>
       <c r="J16" t="n">
-        <v>58.93862268679378</v>
+        <v>39.2454948125622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.70155592180954</v>
+        <v>28.04897676441795</v>
       </c>
       <c r="R16" t="n">
-        <v>135.7095502397025</v>
+        <v>155.4026781139341</v>
       </c>
       <c r="S16" t="n">
-        <v>195.838937747532</v>
+        <v>215.5320656217636</v>
       </c>
       <c r="T16" t="n">
-        <v>208.5196892640824</v>
+        <v>225.8653962957056</v>
       </c>
       <c r="U16" t="n">
         <v>286.2924736994793</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.8211362904381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>234.360186397965</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>239.3751307281072</v>
+        <v>223.7703362476404</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>275.9633403686689</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2173806791498</v>
+        <v>283.3046753061072</v>
       </c>
       <c r="H17" t="n">
         <v>328.3593914192326</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>254.4231897858933</v>
       </c>
       <c r="Y17" t="n">
-        <v>255.3252332830111</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>26.73237508235843</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>14.15650702034137</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7628000598813</v>
+        <v>5.850094686838816</v>
       </c>
       <c r="H18" t="n">
-        <v>106.6269395806581</v>
+        <v>60.72167355206281</v>
       </c>
       <c r="I18" t="n">
-        <v>69.40264486398047</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23865,19 +23865,19 @@
         <v>197.8240312476302</v>
       </c>
       <c r="U18" t="n">
-        <v>94.99047163534485</v>
+        <v>225.9031770083874</v>
       </c>
       <c r="V18" t="n">
-        <v>101.8878817763828</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>120.7822777878771</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>90.37478488472858</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.91927480889478</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.39468379604111</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.09476722135834</v>
+        <v>24.4899727408916</v>
       </c>
       <c r="S19" t="n">
         <v>215.5320656217636</v>
@@ -23947,16 +23947,16 @@
         <v>155.3797683264368</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>182.2244162272933</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>155.6102929635485</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.67194797905228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>142.464985765783</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.2173806791498</v>
       </c>
       <c r="H20" t="n">
-        <v>328.3593914192326</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>168.6326701510822</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.69107159268736</v>
+        <v>81.69107159268735</v>
       </c>
       <c r="S20" t="n">
         <v>184.2875006862301</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2588243609577</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>72.31686636960643</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24054,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.7628000598813</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>7.027441659316551</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>69.40264486398047</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.10243364944259</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.8240312476302</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9031770083874</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>28.07753752650288</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24148,7 +24148,7 @@
         <v>140.8094560281918</v>
       </c>
       <c r="J22" t="n">
-        <v>58.93862268679378</v>
+        <v>58.93862268679377</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>155.4026781139341</v>
       </c>
       <c r="S22" t="n">
-        <v>185.3333373229253</v>
+        <v>215.5320656217636</v>
       </c>
       <c r="T22" t="n">
         <v>225.8653962957056</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2924736994793</v>
+        <v>64.76944502436677</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>146.7703845944678</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>326.3673554542265</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2173806791498</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>328.3593914192326</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>168.6326701510822</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.69107159268736</v>
+        <v>81.69107159268735</v>
       </c>
       <c r="S23" t="n">
-        <v>184.2875006862301</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3447000146056</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2588243609577</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,22 +24288,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>9.951799702599601</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.7628000598813</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.40264486398047</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>64.10243364944259</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9031770083874</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>14.91866178229103</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24385,7 +24385,7 @@
         <v>140.8094560281918</v>
       </c>
       <c r="J25" t="n">
-        <v>58.93862268679378</v>
+        <v>58.93862268679377</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>215.5320656217636</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8653962957056</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2924736994793</v>
+        <v>4.111842983481381</v>
       </c>
       <c r="V25" t="n">
-        <v>30.61461464871562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2173806791498</v>
+        <v>8.533520474532679</v>
       </c>
       <c r="H26" t="n">
-        <v>328.3593914192326</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>168.6326701510822</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.69107159268735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>184.2875006862301</v>
       </c>
       <c r="T26" t="n">
-        <v>218.3447000146056</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2588243609577</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>146.7703845944677</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.40264486398047</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>74.28865514081099</v>
       </c>
       <c r="T27" t="n">
-        <v>197.8240312476302</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>85.28256103490753</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,22 +24643,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.39468379604111</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>155.4026781139341</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>215.5320656217636</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.8653962957056</v>
+        <v>134.1487968157408</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2924736994793</v>
       </c>
       <c r="V28" t="n">
-        <v>30.3840900116038</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>266.9821570669076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2173806791498</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>328.3593914192326</v>
+        <v>264.8658424461673</v>
       </c>
       <c r="I29" t="n">
-        <v>168.6326701510822</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>81.69107159268735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2875006862301</v>
       </c>
       <c r="T29" t="n">
         <v>218.3447000146056</v>
@@ -24737,16 +24737,16 @@
         <v>251.2588243609577</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>93.08410892491044</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24771,13 +24771,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.7628000598813</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>106.6269395806581</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>69.40264486398047</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>64.10243364944259</v>
+        <v>42.21818931746331</v>
       </c>
       <c r="S30" t="n">
         <v>160.8966056099798</v>
       </c>
       <c r="T30" t="n">
-        <v>197.8240312476302</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>141.1267195773162</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5041256465793</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.8986004145475</v>
@@ -24883,7 +24883,7 @@
         <v>45.39468379604111</v>
       </c>
       <c r="R31" t="n">
-        <v>155.4026781139341</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>215.5320656217636</v>
@@ -24892,13 +24892,13 @@
         <v>225.8653962957056</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2924736994793</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>64.76944502436686</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,13 +24917,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>414.2173806791498</v>
       </c>
       <c r="H32" t="n">
-        <v>304.7342350792475</v>
+        <v>328.3593914192326</v>
       </c>
       <c r="I32" t="n">
         <v>168.6326701510822</v>
@@ -24965,25 +24965,25 @@
         <v>81.69107159268735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>125.8687363298805</v>
       </c>
       <c r="T32" t="n">
         <v>218.3447000146056</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2588243609577</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25011,7 +25011,7 @@
         <v>136.7628000598813</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.19423529402005</v>
       </c>
       <c r="I33" t="n">
         <v>69.40264486398047</v>
@@ -25044,10 +25044,10 @@
         <v>64.10243364944259</v>
       </c>
       <c r="S33" t="n">
-        <v>47.81526961102844</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.8240312476302</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>225.8653962957056</v>
       </c>
       <c r="U34" t="n">
-        <v>64.76944502436677</v>
+        <v>286.2924736994793</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>4.18662671392471</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>196.8004670276339</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>196.620074623044</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25242,13 +25242,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>54.54084632233868</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.7628000598813</v>
       </c>
       <c r="H36" t="n">
-        <v>106.6269395806581</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>69.40264486398047</v>
@@ -25281,13 +25281,13 @@
         <v>64.10243364944259</v>
       </c>
       <c r="S36" t="n">
-        <v>160.8966056099798</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>124.2403602653463</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>45.39468379604111</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>155.4026781139341</v>
       </c>
       <c r="S37" t="n">
         <v>215.5320656217636</v>
@@ -25366,13 +25366,13 @@
         <v>225.8653962957056</v>
       </c>
       <c r="U37" t="n">
-        <v>231.1814519215791</v>
+        <v>286.2924736994793</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>30.6146146487155</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>34.6641295216798</v>
       </c>
       <c r="F38" t="n">
-        <v>101.4386240998579</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.2173806791498</v>
@@ -25409,7 +25409,7 @@
         <v>328.3593914192326</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>168.6326701510822</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.69107159268735</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>184.2875006862301</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3447000146056</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2588243609577</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25470,25 +25470,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7628000598813</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>83.45253231363434</v>
+        <v>76.73052745695111</v>
       </c>
       <c r="I39" t="n">
-        <v>69.40264486398047</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.8240312476302</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>45.39468379604111</v>
       </c>
       <c r="R40" t="n">
-        <v>88.5983721130313</v>
+        <v>155.4026781139341</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>215.5320656217636</v>
       </c>
       <c r="T40" t="n">
         <v>225.8653962957056</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2924736994793</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>64.7694450243668</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,10 +25640,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2173806791498</v>
+        <v>376.9665071218212</v>
       </c>
       <c r="H41" t="n">
-        <v>115.3017378965222</v>
+        <v>328.3593914192326</v>
       </c>
       <c r="I41" t="n">
         <v>168.6326701510822</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.69107159268735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>184.2875006862301</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.3447000146056</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2588243609577</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25707,16 +25707,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>116.3143764652919</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>64.10243364944259</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.393117967032225</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9031770083874</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>109.2117097189237</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.5041256465793</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.8986004145475</v>
       </c>
       <c r="I43" t="n">
         <v>140.8094560281918</v>
@@ -25837,10 +25837,10 @@
         <v>215.5320656217636</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8653962957056</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2924736994793</v>
+        <v>4.111842983481381</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>318849.8778394102</v>
+        <v>318849.87783941</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318849.8778394102</v>
+        <v>318849.87783941</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>412151.3071653685</v>
+        <v>412151.3071653684</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>705300.8835115089</v>
+        <v>705300.883511509</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>705300.8835115089</v>
+        <v>705300.883511509</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705300.8835115088</v>
+        <v>705300.883511509</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>705300.8835115088</v>
+        <v>705300.883511509</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691496.1276078912</v>
+        <v>691496.1276078911</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691496.1276078915</v>
+        <v>691496.1276078911</v>
       </c>
     </row>
     <row r="15">
@@ -26326,25 +26326,25 @@
         <v>135784.8745536756</v>
       </c>
       <c r="G2" t="n">
-        <v>170444.0357431736</v>
+        <v>170444.0357431735</v>
       </c>
       <c r="H2" t="n">
         <v>279341.8146155401</v>
       </c>
       <c r="I2" t="n">
-        <v>279341.8146155403</v>
+        <v>279341.8146155404</v>
       </c>
       <c r="J2" t="n">
         <v>279341.8146155403</v>
       </c>
       <c r="K2" t="n">
-        <v>279341.8146155403</v>
+        <v>279341.8146155404</v>
       </c>
       <c r="L2" t="n">
         <v>279341.8146155402</v>
       </c>
       <c r="M2" t="n">
-        <v>274213.6910326356</v>
+        <v>274213.6910326355</v>
       </c>
       <c r="N2" t="n">
         <v>274213.6910326355</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30483.61789876162</v>
+        <v>30483.61789876161</v>
       </c>
       <c r="H3" t="n">
         <v>112831.8404849553</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58144.74570109071</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58144.74570109071</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58144.74570109071</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>22232.95596457283</v>
+        <v>22609.0466479736</v>
       </c>
       <c r="F4" t="n">
-        <v>22232.95596457283</v>
+        <v>22609.0466479736</v>
       </c>
       <c r="G4" t="n">
-        <v>39716.4968197401</v>
+        <v>40386.93214926049</v>
       </c>
       <c r="H4" t="n">
-        <v>94649.12359458815</v>
+        <v>96244.3787144707</v>
       </c>
       <c r="I4" t="n">
-        <v>94649.12359458813</v>
+        <v>96244.37871447069</v>
       </c>
       <c r="J4" t="n">
-        <v>94649.12359458813</v>
+        <v>96244.37871447072</v>
       </c>
       <c r="K4" t="n">
-        <v>94649.12359458813</v>
+        <v>96244.3787144707</v>
       </c>
       <c r="L4" t="n">
-        <v>94649.12359458813</v>
+        <v>96244.37871447072</v>
       </c>
       <c r="M4" t="n">
-        <v>92062.28204692747</v>
+        <v>93613.98632283504</v>
       </c>
       <c r="N4" t="n">
-        <v>92062.28204692747</v>
+        <v>93613.98632283504</v>
       </c>
       <c r="O4" t="n">
-        <v>77452.74790767809</v>
+        <v>78758.49295874599</v>
       </c>
       <c r="P4" t="n">
-        <v>19420.4301534634</v>
+        <v>19749.19692589515</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26485.80038350033</v>
+        <v>25501.47304229553</v>
       </c>
       <c r="C6" t="n">
-        <v>26485.80038350034</v>
+        <v>25501.47304229553</v>
       </c>
       <c r="D6" t="n">
-        <v>26485.80038350031</v>
+        <v>25501.47304229553</v>
       </c>
       <c r="E6" t="n">
-        <v>-116315.7379550725</v>
+        <v>-116691.8286384733</v>
       </c>
       <c r="F6" t="n">
-        <v>106468.9576320102</v>
+        <v>106092.8669486094</v>
       </c>
       <c r="G6" t="n">
-        <v>86398.80975565154</v>
+        <v>85728.37442613109</v>
       </c>
       <c r="H6" t="n">
-        <v>32589.69379968174</v>
+        <v>30994.43867979912</v>
       </c>
       <c r="I6" t="n">
-        <v>145421.5342846372</v>
+        <v>143826.2791647548</v>
       </c>
       <c r="J6" t="n">
-        <v>145421.5342846373</v>
+        <v>143826.2791647546</v>
       </c>
       <c r="K6" t="n">
-        <v>145421.5342846372</v>
+        <v>143826.2791647548</v>
       </c>
       <c r="L6" t="n">
-        <v>145421.5342846372</v>
+        <v>143826.2791647546</v>
       </c>
       <c r="M6" t="n">
-        <v>144077.5944241465</v>
+        <v>142525.8901482388</v>
       </c>
       <c r="N6" t="n">
-        <v>144077.5944241463</v>
+        <v>142525.8901482389</v>
       </c>
       <c r="O6" t="n">
-        <v>136487.5140457431</v>
+        <v>135181.7689946752</v>
       </c>
       <c r="P6" t="n">
-        <v>104341.8908383312</v>
+        <v>104013.1240658995</v>
       </c>
     </row>
   </sheetData>
@@ -26826,7 +26826,7 @@
         <v>529.4111147898403</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1915372910293</v>
+        <v>418.1915372910294</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>111.219577498811</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1915372910293</v>
+        <v>418.1915372910294</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>111.219577498811</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1915372910293</v>
+        <v>418.1915372910294</v>
       </c>
     </row>
   </sheetData>
@@ -32461,19 +32461,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.08535683598531</v>
+        <v>1.085356835985311</v>
       </c>
       <c r="H20" t="n">
-        <v>11.11541069653456</v>
+        <v>11.11541069653457</v>
       </c>
       <c r="I20" t="n">
-        <v>41.84321941932372</v>
+        <v>41.84321941932373</v>
       </c>
       <c r="J20" t="n">
-        <v>92.11830475820832</v>
+        <v>92.11830475820834</v>
       </c>
       <c r="K20" t="n">
-        <v>138.0614596254665</v>
+        <v>138.0614596254666</v>
       </c>
       <c r="L20" t="n">
         <v>171.277448894752</v>
@@ -32482,28 +32482,28 @@
         <v>190.5791635267058</v>
       </c>
       <c r="N20" t="n">
-        <v>193.662933636949</v>
+        <v>193.6629336369491</v>
       </c>
       <c r="O20" t="n">
         <v>182.8704165991201</v>
       </c>
       <c r="P20" t="n">
-        <v>156.0756697107327</v>
+        <v>156.0756697107328</v>
       </c>
       <c r="Q20" t="n">
         <v>117.2063280220088</v>
       </c>
       <c r="R20" t="n">
-        <v>68.17804634846232</v>
+        <v>68.17804634846233</v>
       </c>
       <c r="S20" t="n">
-        <v>24.73256890001528</v>
+        <v>24.73256890001529</v>
       </c>
       <c r="T20" t="n">
         <v>4.751149549525699</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08682854687882481</v>
+        <v>0.08682854687882484</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5807171033293106</v>
+        <v>0.5807171033293108</v>
       </c>
       <c r="H21" t="n">
-        <v>5.608504655838343</v>
+        <v>5.608504655838344</v>
       </c>
       <c r="I21" t="n">
         <v>19.9939879874346</v>
       </c>
       <c r="J21" t="n">
-        <v>54.86503124042405</v>
+        <v>54.86503124042406</v>
       </c>
       <c r="K21" t="n">
-        <v>93.77307716348786</v>
+        <v>93.77307716348787</v>
       </c>
       <c r="L21" t="n">
         <v>126.0894745627962</v>
       </c>
       <c r="M21" t="n">
-        <v>147.1404695584836</v>
+        <v>147.1404695584837</v>
       </c>
       <c r="N21" t="n">
         <v>151.0348399575649</v>
       </c>
       <c r="O21" t="n">
-        <v>138.1673715101101</v>
+        <v>138.1673715101102</v>
       </c>
       <c r="P21" t="n">
         <v>110.8914966875067</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.12802883901868</v>
+        <v>74.1280288390187</v>
       </c>
       <c r="R21" t="n">
-        <v>36.05540050320054</v>
+        <v>36.05540050320055</v>
       </c>
       <c r="S21" t="n">
         <v>10.78656549385802</v>
       </c>
       <c r="T21" t="n">
-        <v>2.340697447191387</v>
+        <v>2.340697447191388</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03820507258745466</v>
+        <v>0.03820507258745467</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4868537118794766</v>
+        <v>0.4868537118794767</v>
       </c>
       <c r="H22" t="n">
-        <v>4.328572092892077</v>
+        <v>4.328572092892078</v>
       </c>
       <c r="I22" t="n">
         <v>14.64101889906645</v>
@@ -32631,34 +32631,34 @@
         <v>34.420557429879</v>
       </c>
       <c r="K22" t="n">
-        <v>56.56354943472464</v>
+        <v>56.56354943472465</v>
       </c>
       <c r="L22" t="n">
-        <v>72.38186912797238</v>
+        <v>72.38186912797239</v>
       </c>
       <c r="M22" t="n">
-        <v>76.31653230852558</v>
+        <v>76.31653230852561</v>
       </c>
       <c r="N22" t="n">
-        <v>74.50189574606578</v>
+        <v>74.5018957460658</v>
       </c>
       <c r="O22" t="n">
-        <v>68.81455920274641</v>
+        <v>68.81455920274642</v>
       </c>
       <c r="P22" t="n">
-        <v>58.88274348040504</v>
+        <v>58.88274348040505</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.76735945565327</v>
+        <v>40.76735945565328</v>
       </c>
       <c r="R22" t="n">
-        <v>21.89071326323537</v>
+        <v>21.89071326323538</v>
       </c>
       <c r="S22" t="n">
-        <v>8.484532415208694</v>
+        <v>8.484532415208696</v>
       </c>
       <c r="T22" t="n">
-        <v>2.080193132575945</v>
+        <v>2.080193132575946</v>
       </c>
       <c r="U22" t="n">
         <v>0.02655565701160785</v>
@@ -32698,19 +32698,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.08535683598531</v>
+        <v>1.085356835985311</v>
       </c>
       <c r="H23" t="n">
-        <v>11.11541069653456</v>
+        <v>11.11541069653457</v>
       </c>
       <c r="I23" t="n">
-        <v>41.84321941932372</v>
+        <v>41.84321941932373</v>
       </c>
       <c r="J23" t="n">
-        <v>92.11830475820832</v>
+        <v>92.11830475820834</v>
       </c>
       <c r="K23" t="n">
-        <v>138.0614596254665</v>
+        <v>138.0614596254666</v>
       </c>
       <c r="L23" t="n">
         <v>171.277448894752</v>
@@ -32719,28 +32719,28 @@
         <v>190.5791635267058</v>
       </c>
       <c r="N23" t="n">
-        <v>193.662933636949</v>
+        <v>193.6629336369491</v>
       </c>
       <c r="O23" t="n">
         <v>182.8704165991201</v>
       </c>
       <c r="P23" t="n">
-        <v>156.0756697107327</v>
+        <v>156.0756697107328</v>
       </c>
       <c r="Q23" t="n">
         <v>117.2063280220088</v>
       </c>
       <c r="R23" t="n">
-        <v>68.17804634846232</v>
+        <v>68.17804634846233</v>
       </c>
       <c r="S23" t="n">
-        <v>24.73256890001528</v>
+        <v>24.73256890001529</v>
       </c>
       <c r="T23" t="n">
         <v>4.751149549525699</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08682854687882481</v>
+        <v>0.08682854687882484</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5807171033293106</v>
+        <v>0.5807171033293108</v>
       </c>
       <c r="H24" t="n">
-        <v>5.608504655838343</v>
+        <v>5.608504655838344</v>
       </c>
       <c r="I24" t="n">
         <v>19.9939879874346</v>
       </c>
       <c r="J24" t="n">
-        <v>54.86503124042405</v>
+        <v>54.86503124042406</v>
       </c>
       <c r="K24" t="n">
-        <v>93.77307716348786</v>
+        <v>93.77307716348787</v>
       </c>
       <c r="L24" t="n">
         <v>126.0894745627962</v>
       </c>
       <c r="M24" t="n">
-        <v>147.1404695584836</v>
+        <v>147.1404695584837</v>
       </c>
       <c r="N24" t="n">
         <v>151.0348399575649</v>
       </c>
       <c r="O24" t="n">
-        <v>138.1673715101101</v>
+        <v>138.1673715101102</v>
       </c>
       <c r="P24" t="n">
         <v>110.8914966875067</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.12802883901868</v>
+        <v>74.1280288390187</v>
       </c>
       <c r="R24" t="n">
-        <v>36.05540050320054</v>
+        <v>36.05540050320055</v>
       </c>
       <c r="S24" t="n">
         <v>10.78656549385802</v>
       </c>
       <c r="T24" t="n">
-        <v>2.340697447191387</v>
+        <v>2.340697447191388</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03820507258745466</v>
+        <v>0.03820507258745467</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,10 +32856,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4868537118794766</v>
+        <v>0.4868537118794767</v>
       </c>
       <c r="H25" t="n">
-        <v>4.328572092892077</v>
+        <v>4.328572092892078</v>
       </c>
       <c r="I25" t="n">
         <v>14.64101889906645</v>
@@ -32868,34 +32868,34 @@
         <v>34.420557429879</v>
       </c>
       <c r="K25" t="n">
-        <v>56.56354943472464</v>
+        <v>56.56354943472465</v>
       </c>
       <c r="L25" t="n">
-        <v>72.38186912797238</v>
+        <v>72.38186912797239</v>
       </c>
       <c r="M25" t="n">
-        <v>76.31653230852558</v>
+        <v>76.31653230852561</v>
       </c>
       <c r="N25" t="n">
-        <v>74.50189574606578</v>
+        <v>74.5018957460658</v>
       </c>
       <c r="O25" t="n">
-        <v>68.81455920274641</v>
+        <v>68.81455920274642</v>
       </c>
       <c r="P25" t="n">
-        <v>58.88274348040504</v>
+        <v>58.88274348040505</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.76735945565327</v>
+        <v>40.76735945565328</v>
       </c>
       <c r="R25" t="n">
-        <v>21.89071326323537</v>
+        <v>21.89071326323538</v>
       </c>
       <c r="S25" t="n">
-        <v>8.484532415208694</v>
+        <v>8.484532415208696</v>
       </c>
       <c r="T25" t="n">
-        <v>2.080193132575945</v>
+        <v>2.080193132575946</v>
       </c>
       <c r="U25" t="n">
         <v>0.02655565701160785</v>
@@ -35410,25 +35410,25 @@
         <v>19.69312787423158</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18.89744593991918</v>
+      </c>
+      <c r="M11" t="n">
         <v>19.69312787423158</v>
       </c>
-      <c r="L11" t="n">
-        <v>18.89744593991919</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>13.89101030345387</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>5.006435636465312</v>
+        <v>18.89744593991918</v>
       </c>
       <c r="N12" t="n">
         <v>19.69312787423158</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>18.89744593991918</v>
+      </c>
+      <c r="L13" t="n">
         <v>19.69312787423158</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="N13" t="n">
         <v>19.69312787423158</v>
       </c>
       <c r="O13" t="n">
-        <v>18.89744593991919</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>18.89744593991918</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="N14" t="n">
-        <v>18.89744593991918</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>19.69312787423158</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>19.69312787423158</v>
+      </c>
+      <c r="K15" t="n">
         <v>18.89744593991918</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19.69312787423158</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35805,19 +35805,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.69312787423158</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>18.89744593991918</v>
       </c>
       <c r="M16" t="n">
-        <v>19.69312787423158</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>19.69312787423158</v>
       </c>
       <c r="O16" t="n">
-        <v>18.89744593991919</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>19.69312787423158</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>80.16901540359581</v>
       </c>
       <c r="K17" t="n">
-        <v>18.40767432828394</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="L17" t="n">
         <v>130.9127053730425</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="N17" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.215628807464</v>
+        <v>45.45428773215209</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>125.6233031357479</v>
       </c>
       <c r="L18" t="n">
-        <v>130.9127053730425</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>130.9127053730425</v>
       </c>
       <c r="N18" t="n">
-        <v>125.6233031357479</v>
+        <v>130.9127053730425</v>
       </c>
       <c r="O18" t="n">
         <v>130.9127053730425</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>80.16901540359596</v>
+        <v>80.16901540359564</v>
       </c>
       <c r="K20" t="n">
-        <v>242.1170211516507</v>
+        <v>242.1170211516508</v>
       </c>
       <c r="L20" t="n">
-        <v>353.1722484752152</v>
+        <v>353.1722484752153</v>
       </c>
       <c r="M20" t="n">
         <v>409.7464637922656</v>
       </c>
       <c r="N20" t="n">
-        <v>401.5967944523423</v>
+        <v>401.5967944523424</v>
       </c>
       <c r="O20" t="n">
         <v>333.5723864401788</v>
       </c>
       <c r="P20" t="n">
-        <v>246.6413821269458</v>
+        <v>246.6413821269459</v>
       </c>
       <c r="Q20" t="n">
         <v>107.215628807464</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.07165221467196</v>
+        <v>54.1184399141662</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>220.3968752017075</v>
       </c>
       <c r="L21" t="n">
         <v>358.3754400863812</v>
@@ -36209,16 +36209,16 @@
         <v>470.7114993864652</v>
       </c>
       <c r="N21" t="n">
-        <v>499.0355022177851</v>
+        <v>499.0355022177852</v>
       </c>
       <c r="O21" t="n">
-        <v>389.4334463423952</v>
+        <v>389.4334463423953</v>
       </c>
       <c r="P21" t="n">
-        <v>295.3798579131136</v>
+        <v>37.93619501191165</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.2235424888462</v>
+        <v>144.2235424888463</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.29405760884178</v>
+        <v>34.2940576088418</v>
       </c>
       <c r="L22" t="n">
-        <v>99.97189438828852</v>
+        <v>99.97189438828853</v>
       </c>
       <c r="M22" t="n">
         <v>115.9004092703662</v>
@@ -36291,10 +36291,10 @@
         <v>118.6340681252944</v>
       </c>
       <c r="O22" t="n">
-        <v>93.39968711678608</v>
+        <v>93.3996871167861</v>
       </c>
       <c r="P22" t="n">
-        <v>56.16130274529853</v>
+        <v>56.16130274529854</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>80.16901540359581</v>
+        <v>80.16901540359564</v>
       </c>
       <c r="K23" t="n">
-        <v>242.1170211516507</v>
+        <v>242.1170211516508</v>
       </c>
       <c r="L23" t="n">
-        <v>353.1722484752152</v>
+        <v>353.1722484752153</v>
       </c>
       <c r="M23" t="n">
         <v>409.7464637922656</v>
       </c>
       <c r="N23" t="n">
-        <v>401.5967944523423</v>
+        <v>401.5967944523424</v>
       </c>
       <c r="O23" t="n">
         <v>333.5723864401788</v>
       </c>
       <c r="P23" t="n">
-        <v>246.6413821269458</v>
+        <v>246.6413821269459</v>
       </c>
       <c r="Q23" t="n">
         <v>107.215628807464</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>54.11843991416619</v>
+        <v>17.07165221467156</v>
       </c>
       <c r="K24" t="n">
-        <v>220.3968752017075</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>358.3754400863812</v>
@@ -36446,16 +36446,16 @@
         <v>470.7114993864652</v>
       </c>
       <c r="N24" t="n">
-        <v>499.0355022177851</v>
+        <v>499.0355022177852</v>
       </c>
       <c r="O24" t="n">
-        <v>389.4334463423952</v>
+        <v>389.4334463423953</v>
       </c>
       <c r="P24" t="n">
-        <v>37.9361950119121</v>
+        <v>295.3798579131137</v>
       </c>
       <c r="Q24" t="n">
-        <v>144.2235424888462</v>
+        <v>144.2235424888463</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.29405760884178</v>
+        <v>34.2940576088418</v>
       </c>
       <c r="L25" t="n">
-        <v>99.97189438828852</v>
+        <v>99.97189438828853</v>
       </c>
       <c r="M25" t="n">
         <v>115.9004092703662</v>
@@ -36528,10 +36528,10 @@
         <v>118.6340681252944</v>
       </c>
       <c r="O25" t="n">
-        <v>93.39968711678608</v>
+        <v>93.3996871167861</v>
       </c>
       <c r="P25" t="n">
-        <v>56.16130274529853</v>
+        <v>56.16130274529854</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>80.16901540359564</v>
+        <v>80.16901540359582</v>
       </c>
       <c r="K26" t="n">
         <v>242.1170211516508</v>
@@ -36613,7 +36613,7 @@
         <v>246.6413821269459</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.215628807464</v>
+        <v>107.2156288074641</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>17.07165221467156</v>
+        <v>54.1184399141662</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>220.3968752017075</v>
       </c>
       <c r="L27" t="n">
         <v>358.3754400863812</v>
@@ -36683,7 +36683,7 @@
         <v>470.7114993864652</v>
       </c>
       <c r="N27" t="n">
-        <v>499.0355022177852</v>
+        <v>241.5918393165832</v>
       </c>
       <c r="O27" t="n">
         <v>389.4334463423953</v>
@@ -36832,7 +36832,7 @@
         <v>80.16901540359582</v>
       </c>
       <c r="K29" t="n">
-        <v>242.1170211516506</v>
+        <v>242.1170211516508</v>
       </c>
       <c r="L29" t="n">
         <v>353.1722484752153</v>
@@ -36914,7 +36914,7 @@
         <v>220.3968752017075</v>
       </c>
       <c r="L30" t="n">
-        <v>358.3754400863812</v>
+        <v>100.9317771851791</v>
       </c>
       <c r="M30" t="n">
         <v>470.7114993864652</v>
@@ -36926,7 +36926,7 @@
         <v>389.4334463423953</v>
       </c>
       <c r="P30" t="n">
-        <v>37.93619501191165</v>
+        <v>295.3798579131137</v>
       </c>
       <c r="Q30" t="n">
         <v>144.2235424888463</v>
@@ -37087,7 +37087,7 @@
         <v>246.6413821269459</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.215628807464</v>
+        <v>107.2156288074641</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>54.1184399141662</v>
       </c>
       <c r="K33" t="n">
-        <v>17.07165221467156</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>358.3754400863812</v>
@@ -37166,7 +37166,7 @@
         <v>295.3798579131137</v>
       </c>
       <c r="Q33" t="n">
-        <v>144.2235424888463</v>
+        <v>107.1767547893518</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>409.7464637922656</v>
       </c>
       <c r="N35" t="n">
-        <v>401.5967944523424</v>
+        <v>323.6199648897284</v>
       </c>
       <c r="O35" t="n">
         <v>333.5723864401788</v>
       </c>
       <c r="P35" t="n">
-        <v>168.6645525643318</v>
+        <v>246.6413821269459</v>
       </c>
       <c r="Q35" t="n">
         <v>107.215628807464</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>54.1184399141662</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>220.3968752017075</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>358.3754400863812</v>
@@ -37394,16 +37394,16 @@
         <v>470.7114993864652</v>
       </c>
       <c r="N36" t="n">
-        <v>458.9948676670828</v>
+        <v>499.0355022177852</v>
       </c>
       <c r="O36" t="n">
         <v>389.4334463423953</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>295.3798579131137</v>
       </c>
       <c r="Q36" t="n">
-        <v>144.2235424888463</v>
+        <v>83.31836514090388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.192185840981814</v>
+        <v>80.16901540359582</v>
       </c>
       <c r="K38" t="n">
         <v>242.1170211516508</v>
       </c>
       <c r="L38" t="n">
-        <v>353.1722484752153</v>
+        <v>275.1954189126013</v>
       </c>
       <c r="M38" t="n">
         <v>409.7464637922656</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>54.1184399141662</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>220.3968752017075</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>358.3754400863812</v>
@@ -37637,10 +37637,10 @@
         <v>389.4334463423953</v>
       </c>
       <c r="P39" t="n">
-        <v>104.1829079381442</v>
+        <v>295.3798579131137</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.31836514090388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>80.16901540359582</v>
       </c>
       <c r="K41" t="n">
         <v>242.1170211516508</v>
@@ -37789,16 +37789,16 @@
         <v>409.7464637922656</v>
       </c>
       <c r="N41" t="n">
-        <v>401.5967944523424</v>
+        <v>216.8077616376457</v>
       </c>
       <c r="O41" t="n">
-        <v>249.2369935233088</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>246.6413821269459</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>107.215628807464</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>54.1184399141662</v>
       </c>
       <c r="K42" t="n">
-        <v>220.3968752017075</v>
+        <v>17.55912046978157</v>
       </c>
       <c r="L42" t="n">
         <v>358.3754400863812</v>
       </c>
       <c r="M42" t="n">
-        <v>418.1915372910293</v>
+        <v>418.1915372910294</v>
       </c>
       <c r="N42" t="n">
-        <v>19.69312787423161</v>
+        <v>418.1915372910294</v>
       </c>
       <c r="O42" t="n">
         <v>389.4334463423953</v>
       </c>
       <c r="P42" t="n">
-        <v>51.43711219602527</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>144.2235424888463</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
